--- a/data/hour_ahead/test_in.xlsx
+++ b/data/hour_ahead/test_in.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12495" windowHeight="7110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -358,629 +358,629 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.1092602543435429</v>
+        <v>0.48512317458448684</v>
       </c>
       <c r="B1">
-        <v>0.19093680231932492</v>
+        <v>0.35022473021625161</v>
       </c>
       <c r="C1">
-        <v>0.31949914900099252</v>
+        <v>0.36158120629576862</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.12126097080422711</v>
+        <v>0.49064165605390253</v>
       </c>
       <c r="B2">
-        <v>0.31949914900099252</v>
+        <v>0.36158120629576862</v>
       </c>
       <c r="C2">
-        <v>0.24437213370956595</v>
+        <v>0.34873779962246793</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.19111588751567257</v>
+        <v>0.49616014598667424</v>
       </c>
       <c r="B3">
-        <v>0.24437213370956595</v>
+        <v>0.34873779962246793</v>
       </c>
       <c r="C3">
-        <v>0.28893569115700479</v>
+        <v>0.34650266145646325</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.14633709475192549</v>
+        <v>0.50167862958070908</v>
       </c>
       <c r="B4">
-        <v>0.28893569115700479</v>
+        <v>0.34650266145646325</v>
       </c>
       <c r="C4">
-        <v>0.25009732480613994</v>
+        <v>0.35777511538347651</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.17553286763388859</v>
+        <v>0.50719711526501421</v>
       </c>
       <c r="B5">
-        <v>0.25009732480613994</v>
+        <v>0.35777511538347651</v>
       </c>
       <c r="C5">
-        <v>0.29439003509109291</v>
+        <v>0.36538663181858511</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.12179831631739209</v>
+        <v>0.51271559674202016</v>
       </c>
       <c r="B6">
-        <v>0.29439003509109291</v>
+        <v>0.36538663181858511</v>
       </c>
       <c r="C6">
-        <v>0.247768756049635</v>
+        <v>0.36967387961575299</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.20437041017374172</v>
+        <v>0.51823408455055853</v>
       </c>
       <c r="B7">
-        <v>0.247768756049635</v>
+        <v>0.36967387961575299</v>
       </c>
       <c r="C7">
-        <v>0.29949798837918978</v>
+        <v>0.36900756854768724</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.25022389396381872</v>
+        <v>0.52375257025338895</v>
       </c>
       <c r="B8">
-        <v>0.29949798837918978</v>
+        <v>0.36900756854768724</v>
       </c>
       <c r="C8">
-        <v>0.2709014899744856</v>
+        <v>0.37559277969466465</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.12770911696220669</v>
+        <v>0.52927105383610284</v>
       </c>
       <c r="B9">
-        <v>0.2709014899744856</v>
+        <v>0.37559277969466465</v>
       </c>
       <c r="C9">
-        <v>0.26941419742431477</v>
+        <v>0.37580261677112931</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.12394769837005194</v>
+        <v>0.53478953742910862</v>
       </c>
       <c r="B10">
-        <v>0.26941419742431477</v>
+        <v>0.37580261677112931</v>
       </c>
       <c r="C10">
-        <v>0.27165887736264416</v>
+        <v>0.37594977274185826</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.10728998746193803</v>
+        <v>0.5403080189124182</v>
       </c>
       <c r="B11">
-        <v>0.27165887736264416</v>
+        <v>0.37594977274185826</v>
       </c>
       <c r="C11">
-        <v>0.27207128136348352</v>
+        <v>0.39406295202385877</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.2276553824108902</v>
+        <v>0.54582651092812717</v>
       </c>
       <c r="B12">
-        <v>0.27207128136348352</v>
+        <v>0.39406295202385877</v>
       </c>
       <c r="C12">
-        <v>0.26284862458706282</v>
+        <v>0.41306321019913245</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.1875335840945728</v>
+        <v>0.55134498608903837</v>
       </c>
       <c r="B13">
-        <v>0.26284862458706282</v>
+        <v>0.41306321019913245</v>
       </c>
       <c r="C13">
-        <v>0.3837459100616733</v>
+        <v>0.4109809927743181</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.34963281389933726</v>
+        <v>0.58831524052300133</v>
       </c>
       <c r="B14">
-        <v>0.3837459100616733</v>
+        <v>0.4109809927743181</v>
       </c>
       <c r="C14">
-        <v>0.1904193104572928</v>
+        <v>0.41789610837895613</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.43829482357155652</v>
+        <v>0.52935568068351746</v>
       </c>
       <c r="B15">
-        <v>0.1904193104572928</v>
+        <v>0.41789610837895613</v>
       </c>
       <c r="C15">
-        <v>0.32494657755166068</v>
+        <v>0.52713663239265685</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.26562779867454772</v>
+        <v>0.77095447308309739</v>
       </c>
       <c r="B16">
-        <v>0.32494657755166068</v>
+        <v>0.52713663239265685</v>
       </c>
       <c r="C16">
-        <v>0.29086882858723595</v>
+        <v>0.58983584340709738</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.169084721475909</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B17">
-        <v>0.29086882858723595</v>
+        <v>0.58983584340709738</v>
       </c>
       <c r="C17">
-        <v>0.22369076913197916</v>
+        <v>0.61365695530643427</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>9.9767150277628516E-2</v>
+        <v>0.88658493155237628</v>
       </c>
       <c r="B18">
-        <v>0.22369076913197916</v>
+        <v>0.61365695530643427</v>
       </c>
       <c r="C18">
-        <v>0.18268319421435114</v>
+        <v>0.50662054784938582</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.10084184130395844</v>
+        <v>0.53244341908718573</v>
       </c>
       <c r="B19">
-        <v>0.18268319421435114</v>
+        <v>0.50662054784938582</v>
       </c>
       <c r="C19">
-        <v>0.20049842106447074</v>
+        <v>0.29512879149856253</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7.3078989790435256E-2</v>
+        <v>0.20102883293144105</v>
       </c>
       <c r="B20">
-        <v>0.20049842106447074</v>
+        <v>0.29512879149856253</v>
       </c>
       <c r="C20">
-        <v>0.1725521421979456</v>
+        <v>0.29688188780095853</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7.1108722908830371E-2</v>
+        <v>0.28728383405114927</v>
       </c>
       <c r="B21">
-        <v>0.1725521421979456</v>
+        <v>0.29688188780095853</v>
       </c>
       <c r="C21">
-        <v>0.16915894925556602</v>
+        <v>0.43165616704802295</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5.194339960594662E-2</v>
+        <v>0.82373085127750756</v>
       </c>
       <c r="B22">
-        <v>0.16915894925556602</v>
+        <v>0.43165616704802295</v>
       </c>
       <c r="C22">
-        <v>0.14553904910925866</v>
+        <v>0.37491494486007032</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2.5613469460863333E-2</v>
+        <v>0.40325361272520321</v>
       </c>
       <c r="B23">
-        <v>0.14553904910925866</v>
+        <v>0.37491494486007032</v>
       </c>
       <c r="C23">
-        <v>0.162789125516931</v>
+        <v>0.34983502048634418</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4.9077556869066813E-2</v>
+        <v>0.46412439080800072</v>
       </c>
       <c r="B24">
-        <v>0.162789125516931</v>
+        <v>0.34983502048634418</v>
       </c>
       <c r="C24">
-        <v>0.14396245914868266</v>
+        <v>0.37989206385973001</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3.474834318466774E-2</v>
+        <v>0.36628468688439808</v>
       </c>
       <c r="B25">
-        <v>0.14396245914868266</v>
+        <v>0.37989206385973001</v>
       </c>
       <c r="C25">
-        <v>0.15033521749025094</v>
+        <v>0.36680258187349851</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4.7286405158516925E-2</v>
+        <v>0.34952017123419427</v>
       </c>
       <c r="B26">
-        <v>0.15033521749025094</v>
+        <v>0.36680258187349851</v>
       </c>
       <c r="C26">
-        <v>0.15305163756027029</v>
+        <v>0.37618545232866069</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1.8807092960773777E-2</v>
+        <v>0.46467863006245103</v>
       </c>
       <c r="B27">
-        <v>0.15305163756027029</v>
+        <v>0.37618545232866069</v>
       </c>
       <c r="C27">
-        <v>0.13268353324567733</v>
+        <v>0.37990248773982138</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2.1135590184488625E-2</v>
+        <v>0.38405314585484529</v>
       </c>
       <c r="B28">
-        <v>0.13268353324567733</v>
+        <v>0.37990248773982138</v>
       </c>
       <c r="C28">
-        <v>0.13558379476108831</v>
+        <v>0.32957337570348788</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2.0777359842378648E-2</v>
+        <v>0.31474656401805695</v>
       </c>
       <c r="B29">
-        <v>0.13558379476108831</v>
+        <v>0.32957337570348788</v>
       </c>
       <c r="C29">
-        <v>0.11540896637222366</v>
+        <v>0.31318720030966724</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>9.4931040659143838E-3</v>
+        <v>0.17617633601634602</v>
       </c>
       <c r="B30">
-        <v>0.11540896637222366</v>
+        <v>0.31318720030966724</v>
       </c>
       <c r="C30">
-        <v>9.956777353791943E-2</v>
+        <v>0.30198106016185639</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3.582303421099767E-4</v>
+        <v>0.14512268421477137</v>
       </c>
       <c r="B31">
-        <v>9.956777353791943E-2</v>
+        <v>0.30198106016185639</v>
       </c>
       <c r="C31">
-        <v>9.310175195154996E-2</v>
+        <v>0.20457719340220781</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2.3822317750313453E-2</v>
+        <v>0.13235033462676529</v>
       </c>
       <c r="B32">
-        <v>9.310175195154996E-2</v>
+        <v>0.20457719340220781</v>
       </c>
       <c r="C32">
-        <v>0.15165027545586993</v>
+        <v>0.20493126091403865</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3.3136306645172843E-2</v>
+        <v>0.12587247958540884</v>
       </c>
       <c r="B33">
-        <v>0.15165027545586993</v>
+        <v>0.20493126091403865</v>
       </c>
       <c r="C33">
-        <v>0.10964842326968782</v>
+        <v>0.28097867470339849</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1.6120365394948952E-3</v>
+        <v>0.14849821055039833</v>
       </c>
       <c r="B34">
-        <v>0.10964842326968782</v>
+        <v>0.28097867470339849</v>
       </c>
       <c r="C34">
-        <v>6.867861437158311E-2</v>
+        <v>0.21388569134941918</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1.4329213684399068E-3</v>
+        <v>0.20937489441027798</v>
       </c>
       <c r="B35">
-        <v>6.867861437158311E-2</v>
+        <v>0.21388569134941918</v>
       </c>
       <c r="C35">
-        <v>6.9732450273857549E-2</v>
+        <v>0.26918784693893327</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5.3734551316496511E-4</v>
+        <v>0.19650518843981973</v>
       </c>
       <c r="B36">
-        <v>6.9732450273857549E-2</v>
+        <v>0.26918784693893327</v>
       </c>
       <c r="C36">
-        <v>0.10250777311714925</v>
+        <v>0.29114579078297625</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1.0209564750134336E-2</v>
+        <v>0.33036078281978709</v>
       </c>
       <c r="B37">
-        <v>0.10250777311714925</v>
+        <v>0.29114579078297625</v>
       </c>
       <c r="C37">
-        <v>0.1181342923776432</v>
+        <v>0.36559812556205418</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>9.8513344080243589E-3</v>
+        <v>0.55709237435784686</v>
       </c>
       <c r="B38">
-        <v>0.1181342923776432</v>
+        <v>0.36559812556205418</v>
       </c>
       <c r="C38">
-        <v>9.0011194524259958E-2</v>
+        <v>0.3451572213369547</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>4.4778792763747093E-3</v>
+        <v>0.48639702298287529</v>
       </c>
       <c r="B39">
-        <v>9.0011194524259958E-2</v>
+        <v>0.3451572213369547</v>
       </c>
       <c r="C39">
-        <v>0.10796403951975314</v>
+        <v>0.31585310846892839</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2.8300197026688161E-2</v>
+        <v>0.40557602074481885</v>
       </c>
       <c r="B40">
-        <v>0.10796403951975314</v>
+        <v>0.31585310846892839</v>
       </c>
       <c r="C40">
-        <v>7.7908534405496457E-2</v>
+        <v>0.33236531121644375</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>3.9405337632097441E-3</v>
+        <v>0.39833259322388437</v>
       </c>
       <c r="B41">
-        <v>7.7908534405496457E-2</v>
+        <v>0.33236531121644375</v>
       </c>
       <c r="C41">
-        <v>5.672660239368324E-2</v>
+        <v>0.40771121209187117</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>5.3734551316496511E-4</v>
+        <v>0.63285025597775602</v>
       </c>
       <c r="B42">
-        <v>5.672660239368324E-2</v>
+        <v>0.40771121209187117</v>
       </c>
       <c r="C42">
-        <v>4.7320888857673001E-2</v>
+        <v>0.29308149119401217</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>5.3734551316496511E-4</v>
+        <v>0.20806099313208321</v>
       </c>
       <c r="B43">
-        <v>4.7320888857673001E-2</v>
+        <v>0.29308149119401217</v>
       </c>
       <c r="C43">
-        <v>4.1925844339095138E-2</v>
+        <v>0.21122512433766163</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>5.3734551316496511E-4</v>
+        <v>2.5089949241084986E-2</v>
       </c>
       <c r="B44">
-        <v>4.1925844339095138E-2</v>
+        <v>0.21122512433766163</v>
       </c>
       <c r="C44">
-        <v>3.3734805959472466E-2</v>
+        <v>0.13197942218387071</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>5.3734551316496511E-4</v>
+        <v>4.427617870346548E-2</v>
       </c>
       <c r="B45">
-        <v>3.3734805959472466E-2</v>
+        <v>0.13197942218387071</v>
       </c>
       <c r="C45">
-        <v>2.8241293350152571E-2</v>
+        <v>0.1640984160525705</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0</v>
+        <v>0.13176839855576675</v>
       </c>
       <c r="B46">
-        <v>2.8241293350152571E-2</v>
+        <v>0.1640984160525705</v>
       </c>
       <c r="C46">
-        <v>2.1005168798875564E-2</v>
+        <v>0.2145401347589537</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1.7911517105498835E-4</v>
+        <v>0.12683111670766006</v>
       </c>
       <c r="B47">
-        <v>2.1005168798875564E-2</v>
+        <v>0.2145401347589537</v>
       </c>
       <c r="C47">
-        <v>2.0818739359507097E-2</v>
+        <v>0.24058244120044792</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1.7911517105498835E-4</v>
+        <v>0.18897918264612729</v>
       </c>
       <c r="B48">
-        <v>2.0818739359507097E-2</v>
+        <v>0.24058244120044792</v>
       </c>
       <c r="C48">
-        <v>2.3858806297088801E-2</v>
+        <v>0.2903216365111132</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>3.582303421099767E-4</v>
+        <v>0.20129986858167206</v>
       </c>
       <c r="B49">
-        <v>2.3858806297088801E-2</v>
+        <v>0.2903216365111132</v>
       </c>
       <c r="C49">
-        <v>2.9874769279721779E-2</v>
+        <v>0.24387697337664696</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2.6867275658248252E-3</v>
+        <v>0.21450170940098101</v>
       </c>
       <c r="B50">
-        <v>2.9874769279721779E-2</v>
+        <v>0.24387697337664696</v>
       </c>
       <c r="C50">
-        <v>2.9079083614804203E-2</v>
+        <v>0.22935067362149009</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1.7911517105498835E-4</v>
+        <v>0.18805917926814675</v>
       </c>
       <c r="B51">
-        <v>2.9079083614804203E-2</v>
+        <v>0.22935067362149009</v>
       </c>
       <c r="C51">
-        <v>2.3117743269103555E-2</v>
+        <v>0.20901530764259021</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1.7911517105498835E-4</v>
+        <v>0.10650387785040337</v>
       </c>
       <c r="B52">
-        <v>2.3117743269103555E-2</v>
+        <v>0.20901530764259021</v>
       </c>
       <c r="C52">
-        <v>2.2195994822760336E-2</v>
+        <v>0.18963999359010097</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1.7911517105498835E-4</v>
+        <v>0.12845219227510712</v>
       </c>
       <c r="B53">
-        <v>2.2195994822760336E-2</v>
+        <v>0.18963999359010097</v>
       </c>
       <c r="C53">
-        <v>1.8966131735567278E-2</v>
+        <v>0.16943103228043599</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1.7911517105498835E-4</v>
+        <v>5.8903051982484187E-3</v>
       </c>
       <c r="B54">
-        <v>1.8966131735567278E-2</v>
+        <v>0.16943103228043599</v>
       </c>
       <c r="C54">
-        <v>1.7037930578775222E-2</v>
+        <v>9.9813596454923631E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0</v>
+        <v>2.468846851146652E-2</v>
       </c>
       <c r="B55">
-        <v>1.7037930578775222E-2</v>
+        <v>9.9813596454923631E-2</v>
       </c>
       <c r="C55">
-        <v>2.0797866902407453E-2</v>
+        <v>0.13623470872981164</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0</v>
+        <v>5.3622398048355738E-2</v>
       </c>
       <c r="B56">
-        <v>2.0797866902407453E-2</v>
+        <v>0.13623470872981164</v>
       </c>
       <c r="C56">
-        <v>2.513894058326091E-2</v>
+        <v>0.12733502479161304</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0</v>
+        <v>1.9205436176526217E-2</v>
       </c>
       <c r="B57">
-        <v>2.513894058326091E-2</v>
+        <v>0.12733502479161304</v>
       </c>
       <c r="C57">
-        <v>2.222879479625265E-2</v>
+        <v>6.9227568475833931E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -988,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>2.222879479625265E-2</v>
+        <v>6.9227568475833931E-2</v>
       </c>
       <c r="C58">
-        <v>2.5618478013605114E-2</v>
+        <v>4.6947112942482751E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -999,263 +999,263 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>2.5618478013605114E-2</v>
+        <v>4.6947112942482751E-2</v>
       </c>
       <c r="C59">
-        <v>3.1123808261266556E-2</v>
+        <v>3.9761645252336324E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>7.1646068421995341E-4</v>
+        <v>0</v>
       </c>
       <c r="B60">
-        <v>3.1123808261266556E-2</v>
+        <v>3.9761645252336324E-2</v>
       </c>
       <c r="C60">
-        <v>3.3595076383436076E-2</v>
+        <v>5.7912043597635493E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>5.0152247895396736E-3</v>
+        <v>1.846888386408359E-3</v>
       </c>
       <c r="B61">
-        <v>3.3595076383436076E-2</v>
+        <v>5.7912043597635493E-2</v>
       </c>
       <c r="C61">
-        <v>7.4221678203384919E-2</v>
+        <v>0.16557710466477943</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1.5224789539674011E-2</v>
+        <v>0.11044860991845683</v>
       </c>
       <c r="B62">
-        <v>7.4221678203384919E-2</v>
+        <v>0.16557710466477943</v>
       </c>
       <c r="C62">
-        <v>9.6607587863450861E-2</v>
+        <v>0.27091998939558576</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2.8837542539853125E-2</v>
+        <v>0.11268940065037718</v>
       </c>
       <c r="B63">
-        <v>9.6607587863450861E-2</v>
+        <v>0.27091998939558576</v>
       </c>
       <c r="C63">
-        <v>9.4467230749214814E-2</v>
+        <v>0.17858606945392697</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2.4897008776643383E-2</v>
+        <v>5.9992088790108471E-2</v>
       </c>
       <c r="B64">
-        <v>9.4467230749214814E-2</v>
+        <v>0.17858606945392697</v>
       </c>
       <c r="C64">
-        <v>8.8508044173843003E-2</v>
+        <v>0.16824972036102309</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1.5941250223893963E-2</v>
+        <v>0.1022575150520639</v>
       </c>
       <c r="B65">
-        <v>8.8508044173843003E-2</v>
+        <v>0.16824972036102309</v>
       </c>
       <c r="C65">
-        <v>8.9279618813673758E-2</v>
+        <v>0.19074151086611801</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1.2717177144904173E-2</v>
+        <v>2.941474213186647E-2</v>
       </c>
       <c r="B66">
-        <v>8.9279618813673758E-2</v>
+        <v>0.19074151086611801</v>
       </c>
       <c r="C66">
-        <v>8.25678699334111E-2</v>
+        <v>0.11684797096767416</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2.6867275658248254E-2</v>
+        <v>3.7302228343326195E-3</v>
       </c>
       <c r="B67">
-        <v>8.25678699334111E-2</v>
+        <v>0.11684797096767416</v>
       </c>
       <c r="C67">
-        <v>7.0335447094740239E-2</v>
+        <v>6.4953851955629985E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>8.239297868529465E-3</v>
+        <v>4.0458430009094994E-3</v>
       </c>
       <c r="B68">
-        <v>7.0335447094740239E-2</v>
+        <v>6.4953851955629985E-2</v>
       </c>
       <c r="C68">
-        <v>5.6476324959383109E-2</v>
+        <v>7.9027658547816584E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1.6120365394948952E-3</v>
+        <v>9.4448929912561736E-4</v>
       </c>
       <c r="B69">
-        <v>5.6476324959383109E-2</v>
+        <v>7.9027658547816584E-2</v>
       </c>
       <c r="C69">
-        <v>4.7181577935587589E-2</v>
+        <v>5.7448507936723792E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3.582303421099767E-4</v>
+        <v>5.6110475940441651E-4</v>
       </c>
       <c r="B70">
-        <v>4.7181577935587589E-2</v>
+        <v>5.7448507936723792E-2</v>
       </c>
       <c r="C70">
-        <v>4.3393462600381287E-2</v>
+        <v>8.5938165015760432E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0</v>
+        <v>5.3662259317097831E-2</v>
       </c>
       <c r="B71">
-        <v>4.3393462600381287E-2</v>
+        <v>8.5938165015760432E-2</v>
       </c>
       <c r="C71">
-        <v>4.449297205162888E-2</v>
+        <v>0.14301435951072117</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>5.3734551316496511E-4</v>
+        <v>3.480204141127681E-2</v>
       </c>
       <c r="B72">
-        <v>4.449297205162888E-2</v>
+        <v>0.14301435951072117</v>
       </c>
       <c r="C72">
-        <v>4.4547169674774609E-2</v>
+        <v>6.995561836598202E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1.0746910263299302E-3</v>
+        <v>9.931058356645435E-3</v>
       </c>
       <c r="B73">
-        <v>4.4547169674774609E-2</v>
+        <v>6.995561836598202E-2</v>
       </c>
       <c r="C73">
-        <v>4.9476192184613799E-2</v>
+        <v>0.10670651030383935</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>3.582303421099767E-4</v>
+        <v>3.1374370853578595E-2</v>
       </c>
       <c r="B74">
-        <v>4.9476192184613799E-2</v>
+        <v>0.10670651030383935</v>
       </c>
       <c r="C74">
-        <v>4.7846887863790245E-2</v>
+        <v>0.12514261674962116</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1.4329213684399068E-3</v>
+        <v>5.5339150427972876E-2</v>
       </c>
       <c r="B75">
-        <v>4.7846887863790245E-2</v>
+        <v>0.12514261674962116</v>
       </c>
       <c r="C75">
-        <v>4.9605292609579861E-2</v>
+        <v>0.10742734553302213</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>3.4031882500447789E-3</v>
+        <v>1.8006010973819223E-2</v>
       </c>
       <c r="B76">
-        <v>4.9605292609579861E-2</v>
+        <v>0.10742734553302213</v>
       </c>
       <c r="C76">
-        <v>4.9011205622271618E-2</v>
+        <v>0.10682478638525181</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>4.1196489342647325E-3</v>
+        <v>1.8214635456662227E-4</v>
       </c>
       <c r="B77">
-        <v>4.9011205622271618E-2</v>
+        <v>0.10682478638525181</v>
       </c>
       <c r="C77">
-        <v>5.0934065877812316E-2</v>
+        <v>2.9655149882518758E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>7.1646068421995341E-4</v>
+        <v>0</v>
       </c>
       <c r="B78">
-        <v>5.0934065877812316E-2</v>
+        <v>2.9655149882518758E-2</v>
       </c>
       <c r="C78">
-        <v>4.9439147552580304E-2</v>
+        <v>2.5368878614376568E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
       <c r="B79">
-        <v>4.9439147552580304E-2</v>
+        <v>2.5368878614376568E-2</v>
       </c>
       <c r="C79">
-        <v>5.0498090945868275E-2</v>
+        <v>3.4930541960008901E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1.970266881604872E-3</v>
+        <v>0</v>
       </c>
       <c r="B80">
-        <v>5.0498090945868275E-2</v>
+        <v>3.4930541960008901E-2</v>
       </c>
       <c r="C80">
-        <v>5.47099498985371E-2</v>
+        <v>4.0098113395940126E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
       <c r="B81">
-        <v>5.47099498985371E-2</v>
+        <v>4.0098113395940126E-2</v>
       </c>
       <c r="C81">
-        <v>5.1853637729555001E-2</v>
+        <v>3.0389334663608342E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>3.582303421099767E-4</v>
+        <v>0</v>
       </c>
       <c r="B82">
-        <v>5.1853637729555001E-2</v>
+        <v>3.0389334663608342E-2</v>
       </c>
       <c r="C82">
-        <v>4.0400463765623638E-2</v>
+        <v>1.6037810883040779E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1263,131 +1263,131 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <v>4.0400463765623638E-2</v>
+        <v>1.6037810883040779E-2</v>
       </c>
       <c r="C83">
-        <v>3.7687399193877869E-2</v>
+        <v>1.4818849889465467E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>5.3734551316496511E-4</v>
+        <v>0</v>
       </c>
       <c r="B84">
-        <v>3.7687399193877869E-2</v>
+        <v>1.4818849889465467E-2</v>
       </c>
       <c r="C84">
-        <v>3.8139254108540292E-2</v>
+        <v>1.7944468944186498E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1.7911517105498836E-3</v>
+        <v>0</v>
       </c>
       <c r="B85">
-        <v>3.8139254108540292E-2</v>
+        <v>1.7944468944186498E-2</v>
       </c>
       <c r="C85">
-        <v>3.7823247713895551E-2</v>
+        <v>3.0315607286279047E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1.0746910263299302E-3</v>
+        <v>0</v>
       </c>
       <c r="B86">
-        <v>3.7823247713895551E-2</v>
+        <v>3.0315607286279047E-2</v>
       </c>
       <c r="C86">
-        <v>3.9273458636019762E-2</v>
+        <v>5.7435029624012021E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>3.582303421099767E-4</v>
+        <v>7.7184057497063885E-5</v>
       </c>
       <c r="B87">
-        <v>3.9273458636019762E-2</v>
+        <v>5.7435029624012021E-2</v>
       </c>
       <c r="C87">
-        <v>3.7016606491228794E-2</v>
+        <v>0.10477579199928043</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>5.3734551316496511E-4</v>
+        <v>4.0832458678298912E-2</v>
       </c>
       <c r="B88">
-        <v>3.7016606491228794E-2</v>
+        <v>0.10477579199928043</v>
       </c>
       <c r="C88">
-        <v>3.701816942509991E-2</v>
+        <v>0.12856026472706147</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>3.582303421099767E-4</v>
+        <v>2.2939351224690489E-2</v>
       </c>
       <c r="B89">
-        <v>3.701816942509991E-2</v>
+        <v>0.12856026472706147</v>
       </c>
       <c r="C89">
-        <v>3.2346220368587836E-2</v>
+        <v>9.4544689091620754E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0</v>
+        <v>2.9918442756289975E-3</v>
       </c>
       <c r="B90">
-        <v>3.2346220368587836E-2</v>
+        <v>9.4544689091620754E-2</v>
       </c>
       <c r="C90">
-        <v>3.1116869680783876E-2</v>
+        <v>7.328231234794344E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>3.582303421099767E-4</v>
+        <v>3.5910027623970724E-3</v>
       </c>
       <c r="B91">
-        <v>3.1116869680783876E-2</v>
+        <v>7.328231234794344E-2</v>
       </c>
       <c r="C91">
-        <v>3.8356459686996677E-2</v>
+        <v>9.7366313059934192E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>4.1196489342647325E-3</v>
+        <v>2.0606921628255555E-2</v>
       </c>
       <c r="B92">
-        <v>3.8356459686996677E-2</v>
+        <v>9.7366313059934192E-2</v>
       </c>
       <c r="C92">
-        <v>4.3455786319717492E-2</v>
+        <v>0.12101743297016773</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1.7911517105498835E-4</v>
+        <v>3.8201999943163617E-2</v>
       </c>
       <c r="B93">
-        <v>4.3455786319717492E-2</v>
+        <v>0.12101743297016773</v>
       </c>
       <c r="C93">
-        <v>4.6343620218713556E-2</v>
+        <v>0.13071559696806231</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2.1493820526598604E-3</v>
+        <v>2.1113516979527899E-2</v>
       </c>
       <c r="B94">
-        <v>4.6343620218713556E-2</v>
+        <v>0.13071559696806231</v>
       </c>
       <c r="C94">
-        <v>4.5552519574298699E-2</v>
+        <v>4.9458724003409199E-2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1395,813 +1395,813 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>4.5552519574298699E-2</v>
+        <v>4.9458724003409199E-2</v>
       </c>
       <c r="C95">
-        <v>4.6432333977347431E-2</v>
+        <v>1.1518162626989386E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
       <c r="B96">
-        <v>4.6432333977347431E-2</v>
+        <v>1.1518162626989386E-2</v>
       </c>
       <c r="C96">
-        <v>5.0114264296630219E-2</v>
+        <v>3.9845952356857547E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
       <c r="B97">
-        <v>5.0114264296630219E-2</v>
+        <v>3.9845952356857547E-2</v>
       </c>
       <c r="C97">
-        <v>5.2310732915656515E-2</v>
+        <v>5.3313339925019985E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>3.582303421099767E-4</v>
+        <v>9.3906026174069481E-3</v>
       </c>
       <c r="B98">
-        <v>5.2310732915656515E-2</v>
+        <v>5.3313339925019985E-2</v>
       </c>
       <c r="C98">
-        <v>5.8747087285279442E-2</v>
+        <v>9.6282617239503029E-2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>5.194339960594662E-3</v>
+        <v>2.7372360734183684E-2</v>
       </c>
       <c r="B99">
-        <v>5.8747087285279442E-2</v>
+        <v>9.6282617239503029E-2</v>
       </c>
       <c r="C99">
-        <v>6.1090658380266699E-2</v>
+        <v>6.288234903260706E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>8.9557585527494181E-4</v>
+        <v>0</v>
       </c>
       <c r="B100">
-        <v>6.1090658380266699E-2</v>
+        <v>6.288234903260706E-2</v>
       </c>
       <c r="C100">
-        <v>6.6927652986950081E-2</v>
+        <v>4.1169546411759059E-2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1.0926025434354289E-2</v>
+        <v>0</v>
       </c>
       <c r="B101">
-        <v>6.6927652986950081E-2</v>
+        <v>4.1169546411759059E-2</v>
       </c>
       <c r="C101">
-        <v>8.516317351848883E-2</v>
+        <v>3.3822250619394076E-2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>2.1135590184488625E-2</v>
+        <v>0</v>
       </c>
       <c r="B102">
-        <v>8.516317351848883E-2</v>
+        <v>3.3822250619394076E-2</v>
       </c>
       <c r="C102">
-        <v>8.4643549085622369E-2</v>
+        <v>1.7088050165786243E-2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>3.582303421099767E-4</v>
+        <v>0</v>
       </c>
       <c r="B103">
-        <v>8.4643549085622369E-2</v>
+        <v>1.7088050165786243E-2</v>
       </c>
       <c r="C103">
-        <v>0.11480151868146329</v>
+        <v>8.5470057620912771E-3</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>7.8452444922084905E-2</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>0.11480151868146329</v>
+        <v>8.5470057620912771E-3</v>
       </c>
       <c r="C104">
-        <v>0.2154126346781767</v>
+        <v>9.0309616476864606E-3</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>2.0419129500268671E-2</v>
+        <v>0</v>
       </c>
       <c r="B105">
-        <v>0.2154126346781767</v>
+        <v>9.0309616476864606E-3</v>
       </c>
       <c r="C105">
-        <v>0.15617905956503131</v>
+        <v>1.0938678687668226E-2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>7.8989790435249868E-2</v>
+        <v>0</v>
       </c>
       <c r="B106">
-        <v>0.15617905956503131</v>
+        <v>1.0938678687668226E-2</v>
       </c>
       <c r="C106">
-        <v>0.23007034586274586</v>
+        <v>2.0777430246408761E-2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>0.1123052122514777</v>
+        <v>0</v>
       </c>
       <c r="B107">
-        <v>0.23007034586274586</v>
+        <v>2.0777430246408761E-2</v>
       </c>
       <c r="C107">
-        <v>0.19276746842859022</v>
+        <v>3.8749962911773767E-2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>0.10334945369872828</v>
+        <v>7.0428851683204544E-4</v>
       </c>
       <c r="B108">
-        <v>0.19276746842859022</v>
+        <v>3.8749962911773767E-2</v>
       </c>
       <c r="C108">
-        <v>0.17259288663629901</v>
+        <v>9.9764603124007062E-2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>9.9767150277628516E-2</v>
+        <v>4.6101932584890148E-2</v>
       </c>
       <c r="B109">
-        <v>0.17259288663629901</v>
+        <v>9.9764603124007062E-2</v>
       </c>
       <c r="C109">
-        <v>0.17071182890686051</v>
+        <v>0.17804230847376301</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>6.2869425040300908E-2</v>
+        <v>0.13433032327891736</v>
       </c>
       <c r="B110">
-        <v>0.17071182890686051</v>
+        <v>0.17804230847376301</v>
       </c>
       <c r="C110">
-        <v>0.15168672846950085</v>
+        <v>0.23844541897597155</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>7.3616335303600219E-2</v>
+        <v>0.18343625696024005</v>
       </c>
       <c r="B111">
-        <v>0.15168672846950085</v>
+        <v>0.23844541897597155</v>
       </c>
       <c r="C111">
-        <v>0.16099824317501629</v>
+        <v>0.2444192200804631</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>0.11785778255418233</v>
+        <v>0.22533025175686203</v>
       </c>
       <c r="B112">
-        <v>0.16099824317501629</v>
+        <v>0.2444192200804631</v>
       </c>
       <c r="C112">
-        <v>0.18914759053903313</v>
+        <v>0.26882520490640693</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>7.8094214579974924E-2</v>
+        <v>0.26607772576224686</v>
       </c>
       <c r="B113">
-        <v>0.18914759053903313</v>
+        <v>0.26882520490640693</v>
       </c>
       <c r="C113">
-        <v>0.19844011933944991</v>
+        <v>0.29626094831123789</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>8.3646784882679556E-2</v>
+        <v>0.42002658494188844</v>
       </c>
       <c r="B114">
-        <v>0.19844011933944991</v>
+        <v>0.29626094831123789</v>
       </c>
       <c r="C114">
-        <v>0.1489863007453669</v>
+        <v>0.36994409516092447</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>2.6329930145083287E-2</v>
+        <v>0.68162323377245548</v>
       </c>
       <c r="B115">
-        <v>0.1489863007453669</v>
+        <v>0.36994409516092447</v>
       </c>
       <c r="C115">
-        <v>0.14881418723074458</v>
+        <v>0.38304752161696687</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>4.0300913487372379E-2</v>
+        <v>0.56511641430857895</v>
       </c>
       <c r="B116">
-        <v>0.14881418723074458</v>
+        <v>0.38304752161696687</v>
       </c>
       <c r="C116">
-        <v>0.12687721764273727</v>
+        <v>0.25512129793931881</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>3.1166039763567976E-2</v>
+        <v>3.4755447681068675E-2</v>
       </c>
       <c r="B117">
-        <v>0.12687721764273727</v>
+        <v>0.25512129793931881</v>
       </c>
       <c r="C117">
-        <v>0.11158777699036078</v>
+        <v>0.11340389351614508</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1.7195056421278884E-2</v>
+        <v>5.0253364760034426E-2</v>
       </c>
       <c r="B118">
-        <v>0.11158777699036078</v>
+        <v>0.11340389351614508</v>
       </c>
       <c r="C118">
-        <v>0.1444397395647494</v>
+        <v>7.7321514525590732E-2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>7.3258104961490239E-2</v>
+        <v>0</v>
       </c>
       <c r="B119">
-        <v>0.1444397395647494</v>
+        <v>7.7321514525590732E-2</v>
       </c>
       <c r="C119">
-        <v>0.15324603208553761</v>
+        <v>5.7971444987902174E-2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>0.11015583019881783</v>
+        <v>0</v>
       </c>
       <c r="B120">
-        <v>0.15324603208553761</v>
+        <v>5.7971444987902174E-2</v>
       </c>
       <c r="C120">
-        <v>0.13546838755357965</v>
+        <v>3.9986669245265741E-2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>3.2240730789897904E-3</v>
+        <v>0</v>
       </c>
       <c r="B121">
-        <v>0.13546838755357965</v>
+        <v>3.9986669245265741E-2</v>
       </c>
       <c r="C121">
-        <v>6.6335488087184646E-2</v>
+        <v>3.9498277454694093E-2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1.3791868171234104E-2</v>
+        <v>0</v>
       </c>
       <c r="B122">
-        <v>6.6335488087184646E-2</v>
+        <v>3.9498277454694093E-2</v>
       </c>
       <c r="C122">
-        <v>8.0109854591941115E-2</v>
+        <v>5.6101658344641682E-2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>5.7316854737596273E-3</v>
+        <v>0</v>
       </c>
       <c r="B123">
-        <v>8.0109854591941115E-2</v>
+        <v>5.6101658344641682E-2</v>
       </c>
       <c r="C123">
-        <v>8.6456027339551308E-2</v>
+        <v>2.9705004146930676E-2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1.0746910263299301E-2</v>
+        <v>0</v>
       </c>
       <c r="B124">
-        <v>8.6456027339551308E-2</v>
+        <v>2.9705004146930676E-2</v>
       </c>
       <c r="C124">
-        <v>9.5460514233752014E-2</v>
+        <v>1.8292027246828421E-2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1.307540748701415E-2</v>
+        <v>0</v>
       </c>
       <c r="B125">
-        <v>9.5460514233752014E-2</v>
+        <v>1.8292027246828421E-2</v>
       </c>
       <c r="C125">
-        <v>0.10091147859227592</v>
+        <v>2.2046078734400527E-2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1.307540748701415E-2</v>
+        <v>0</v>
       </c>
       <c r="B126">
-        <v>0.10091147859227592</v>
+        <v>2.2046078734400527E-2</v>
       </c>
       <c r="C126">
-        <v>0.11186442294661546</v>
+        <v>3.8836590883786506E-2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1.1821601289629231E-2</v>
+        <v>0</v>
       </c>
       <c r="B127">
-        <v>0.11186442294661546</v>
+        <v>3.8836590883786506E-2</v>
       </c>
       <c r="C127">
-        <v>0.11669587863266247</v>
+        <v>3.7263980837744154E-2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>6.4481461579795809E-3</v>
+        <v>0</v>
       </c>
       <c r="B128">
-        <v>0.11669587863266247</v>
+        <v>3.7263980837744154E-2</v>
       </c>
       <c r="C128">
-        <v>0.12425205623667929</v>
+        <v>4.4575060159693938E-2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>6.2511194698190942E-2</v>
+        <v>0</v>
       </c>
       <c r="B129">
-        <v>0.12425205623667929</v>
+        <v>4.4575060159693938E-2</v>
       </c>
       <c r="C129">
-        <v>0.12854979920498225</v>
+        <v>4.134594807765693E-2</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>2.3284972237148486E-2</v>
+        <v>0</v>
       </c>
       <c r="B130">
-        <v>0.12854979920498225</v>
+        <v>4.134594807765693E-2</v>
       </c>
       <c r="C130">
-        <v>0.11673441978585816</v>
+        <v>2.4281527236735139E-2</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>8.0601826974744765E-3</v>
+        <v>0</v>
       </c>
       <c r="B131">
-        <v>0.11673441978585816</v>
+        <v>2.4281527236735139E-2</v>
       </c>
       <c r="C131">
-        <v>0.10917500369260814</v>
+        <v>6.3138822384183016E-2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1.4508328855454057E-2</v>
+        <v>9.2719623151437964E-3</v>
       </c>
       <c r="B132">
-        <v>0.10917500369260814</v>
+        <v>6.3138822384183016E-2</v>
       </c>
       <c r="C132">
-        <v>0.12164686184625872</v>
+        <v>0.13282216048232587</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>4.8540211355901842E-2</v>
+        <v>6.0411741746967139E-2</v>
       </c>
       <c r="B133">
-        <v>0.12164686184625872</v>
+        <v>0.13282216048232587</v>
       </c>
       <c r="C133">
-        <v>0.13966653405245993</v>
+        <v>0.1713660198290759</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>5.9108006448146157E-2</v>
+        <v>8.6964765604248609E-2</v>
       </c>
       <c r="B134">
-        <v>0.13966653405245993</v>
+        <v>0.1713660198290759</v>
       </c>
       <c r="C134">
-        <v>0.15285416442706179</v>
+        <v>0.18462668161210866</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>9.3856349632813904E-2</v>
+        <v>0.10913363459269587</v>
       </c>
       <c r="B135">
-        <v>0.15285416442706179</v>
+        <v>0.18462668161210866</v>
       </c>
       <c r="C135">
-        <v>0.16211010512974453</v>
+        <v>0.20078283702970953</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>6.9854916711445461E-2</v>
+        <v>0.12184473262610784</v>
       </c>
       <c r="B136">
-        <v>0.16211010512974453</v>
+        <v>0.20078283702970953</v>
       </c>
       <c r="C136">
-        <v>0.17538406978747348</v>
+        <v>0.20913547176819958</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>7.2899874619380259E-2</v>
+        <v>0.12328345665178091</v>
       </c>
       <c r="B137">
-        <v>0.17538406978747348</v>
+        <v>0.20913547176819958</v>
       </c>
       <c r="C137">
-        <v>0.16959178423506327</v>
+        <v>0.22031527944767124</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>5.8570660934981193E-2</v>
+        <v>0.21529149618998836</v>
       </c>
       <c r="B138">
-        <v>0.16959178423506327</v>
+        <v>0.22031527944767124</v>
       </c>
       <c r="C138">
-        <v>0.16878088546626471</v>
+        <v>0.21405241039906167</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>9.8692459251298589E-2</v>
+        <v>9.9339586481826822E-2</v>
       </c>
       <c r="B139">
-        <v>0.16878088546626471</v>
+        <v>0.21405241039906167</v>
       </c>
       <c r="C139">
-        <v>0.17219262119976994</v>
+        <v>0.17957547534618651</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>4.8719326526956833E-2</v>
+        <v>0.10520498932430122</v>
       </c>
       <c r="B140">
-        <v>0.17219262119976994</v>
+        <v>0.17957547534618651</v>
       </c>
       <c r="C140">
-        <v>0.13731059064240869</v>
+        <v>0.18056899206423643</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>4.0121798316317389E-2</v>
+        <v>9.0623714480605383E-2</v>
       </c>
       <c r="B141">
-        <v>0.13731059064240869</v>
+        <v>0.18056899206423643</v>
       </c>
       <c r="C141">
-        <v>0.1344939995565054</v>
+        <v>0.16853932265624516</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>3.8688876947877482E-2</v>
+        <v>9.5893036149449593E-2</v>
       </c>
       <c r="B142">
-        <v>0.1344939995565054</v>
+        <v>0.16853932265624516</v>
       </c>
       <c r="C142">
-        <v>0.12871631832833599</v>
+        <v>0.15305552794689414</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>2.8121081855633171E-2</v>
+        <v>0.10381582316068474</v>
       </c>
       <c r="B143">
-        <v>0.12871631832833599</v>
+        <v>0.15305552794689414</v>
       </c>
       <c r="C143">
-        <v>0.12163346023428445</v>
+        <v>0.20728790172289621</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>3.1166039763567976E-2</v>
+        <v>0.15209137741043363</v>
       </c>
       <c r="B144">
-        <v>0.12163346023428445</v>
+        <v>0.20728790172289621</v>
       </c>
       <c r="C144">
-        <v>0.11829854981428657</v>
+        <v>0.22007961328873249</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>2.6509045316138277E-2</v>
+        <v>0.1800849442872875</v>
       </c>
       <c r="B145">
-        <v>0.11829854981428657</v>
+        <v>0.22007961328873249</v>
       </c>
       <c r="C145">
-        <v>0.10590645837880319</v>
+        <v>0.21502561344425353</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>2.5613469460863333E-2</v>
+        <v>0</v>
       </c>
       <c r="B146">
-        <v>0.10590645837880319</v>
+        <v>0.21502561344425353</v>
       </c>
       <c r="C146">
-        <v>0.10739608726988609</v>
+        <v>2.5708554391385943E-2</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1.0388679921189324E-2</v>
+        <v>0</v>
       </c>
       <c r="B147">
-        <v>0.10739608726988609</v>
+        <v>2.5708554391385943E-2</v>
       </c>
       <c r="C147">
-        <v>0.1067579663654583</v>
+        <v>4.784155740801186E-2</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>9.4931040659143838E-3</v>
+        <v>5.5979739056858605E-3</v>
       </c>
       <c r="B148">
-        <v>0.1067579663654583</v>
+        <v>4.784155740801186E-2</v>
       </c>
       <c r="C148">
-        <v>0.11004290961984108</v>
+        <v>5.3545784038033534E-2</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1.629948056600394E-2</v>
+        <v>3.26531678421009E-3</v>
       </c>
       <c r="B149">
-        <v>0.11004290961984108</v>
+        <v>5.3545784038033534E-2</v>
       </c>
       <c r="C149">
-        <v>0.11442056466549513</v>
+        <v>4.0549634390708002E-2</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1.9702668816048718E-2</v>
+        <v>0</v>
       </c>
       <c r="B150">
-        <v>0.11442056466549513</v>
+        <v>4.0549634390708002E-2</v>
       </c>
       <c r="C150">
-        <v>0.12837463149554526</v>
+        <v>3.1423537239673879E-2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>7.0929607737775388E-2</v>
+        <v>0</v>
       </c>
       <c r="B151">
-        <v>0.12837463149554526</v>
+        <v>3.1423537239673879E-2</v>
       </c>
       <c r="C151">
-        <v>0.1578396356484395</v>
+        <v>4.0405522670701063E-2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>9.5110155830198814E-2</v>
+        <v>0</v>
       </c>
       <c r="B152">
-        <v>0.1578396356484395</v>
+        <v>4.0405522670701063E-2</v>
       </c>
       <c r="C152">
-        <v>0.15979975214542749</v>
+        <v>2.1810519645413657E-2</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>9.2244313093319E-2</v>
+        <v>0</v>
       </c>
       <c r="B153">
-        <v>0.15979975214542749</v>
+        <v>2.1810519645413657E-2</v>
       </c>
       <c r="C153">
-        <v>0.17250960698935339</v>
+        <v>2.689555616114277E-2</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>0.12842557764642665</v>
+        <v>0</v>
       </c>
       <c r="B154">
-        <v>0.17250960698935339</v>
+        <v>2.689555616114277E-2</v>
       </c>
       <c r="C154">
-        <v>0.18732703895112157</v>
+        <v>5.1773255189333865E-2</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>8.2572093856349629E-2</v>
+        <v>0</v>
       </c>
       <c r="B155">
-        <v>0.18732703895112157</v>
+        <v>5.1773255189333865E-2</v>
       </c>
       <c r="C155">
-        <v>0.16851269388583648</v>
+        <v>9.2412443319897064E-2</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>9.3677234461758907E-2</v>
+        <v>2.6119851658316717E-2</v>
       </c>
       <c r="B156">
-        <v>0.16851269388583648</v>
+        <v>9.2412443319897064E-2</v>
       </c>
       <c r="C156">
-        <v>0.19392915349653927</v>
+        <v>0.14529907645719872</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>0.14024717893605587</v>
+        <v>7.9528185847943217E-2</v>
       </c>
       <c r="B157">
-        <v>0.19392915349653927</v>
+        <v>0.14529907645719872</v>
       </c>
       <c r="C157">
-        <v>0.22616334993338177</v>
+        <v>0.19735641716284411</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>0.22425219416084544</v>
+        <v>0.15301350145042203</v>
       </c>
       <c r="B158">
-        <v>0.22616334993338177</v>
+        <v>0.19735641716284411</v>
       </c>
       <c r="C158">
-        <v>0.25624263566304673</v>
+        <v>0.19821587243854769</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>0.25559734909546838</v>
+        <v>6.6146799250956054E-2</v>
       </c>
       <c r="B159">
-        <v>0.25624263566304673</v>
+        <v>0.19821587243854769</v>
       </c>
       <c r="C159">
-        <v>0.30341017766624961</v>
+        <v>0.13467393226537488</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>0.54504746552032957</v>
+        <v>1.4725596386365589E-2</v>
       </c>
       <c r="B160">
-        <v>0.30341017766624961</v>
+        <v>0.13467393226537488</v>
       </c>
       <c r="C160">
-        <v>0.33657243520731672</v>
+        <v>0.10410546245194476</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>0.44133978147949132</v>
+        <v>3.3372532806633659E-2</v>
       </c>
       <c r="B161">
-        <v>0.33657243520731672</v>
+        <v>0.10410546245194476</v>
       </c>
       <c r="C161">
-        <v>0.33098749327406629</v>
+        <v>8.1627834321312515E-2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>0.46211714132186998</v>
+        <v>4.7775621881356407E-3</v>
       </c>
       <c r="B162">
-        <v>0.33098749327406629</v>
+        <v>8.1627834321312515E-2</v>
       </c>
       <c r="C162">
-        <v>0.28306124587390946</v>
+        <v>3.9106043836367038E-2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>0.53412144008597529</v>
+        <v>0</v>
       </c>
       <c r="B163">
-        <v>0.28306124587390946</v>
+        <v>3.9106043836367038E-2</v>
       </c>
       <c r="C163">
-        <v>0.28820274563418596</v>
+        <v>2.7337755380640125E-2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>0.35017015941250224</v>
+        <v>0</v>
       </c>
       <c r="B164">
-        <v>0.28820274563418596</v>
+        <v>2.7337755380640125E-2</v>
       </c>
       <c r="C164">
-        <v>0.26424404935402518</v>
+        <v>1.8235609879354204E-2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>0.33297510299122335</v>
+        <v>0</v>
       </c>
       <c r="B165">
-        <v>0.26424404935402518</v>
+        <v>1.8235609879354204E-2</v>
       </c>
       <c r="C165">
-        <v>0.21302330314020809</v>
+        <v>1.4784956593374633E-2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>0.14848647680458535</v>
+        <v>0</v>
       </c>
       <c r="B166">
-        <v>0.21302330314020809</v>
+        <v>1.4784956593374633E-2</v>
       </c>
       <c r="C166">
-        <v>0.15379283141802466</v>
+        <v>9.6644263739515002E-3</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>3.8330646605767509E-2</v>
+        <v>0</v>
       </c>
       <c r="B167">
-        <v>0.15379283141802466</v>
+        <v>9.6644263739515002E-3</v>
       </c>
       <c r="C167">
-        <v>9.4244979621312647E-2</v>
+        <v>1.1362367661069366E-2</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
       <c r="B168">
-        <v>9.4244979621312647E-2</v>
+        <v>1.1362367661069366E-2</v>
       </c>
       <c r="C168">
-        <v>5.0300786506725481E-2</v>
+        <v>1.6488148154368415E-2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2209,1594 +2209,1594 @@
         <v>0</v>
       </c>
       <c r="B169">
-        <v>5.0300786506725481E-2</v>
+        <v>1.6488148154368415E-2</v>
       </c>
       <c r="C169">
-        <v>2.5593454914325325E-2</v>
+        <v>5.6089982396263262E-2</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>0</v>
+        <v>2.9789332043261203E-3</v>
       </c>
       <c r="B170">
-        <v>2.5593454914325325E-2</v>
+        <v>5.6089982396263262E-2</v>
       </c>
       <c r="C170">
-        <v>4.4675582809285304E-2</v>
+        <v>7.4700304853227303E-2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>2.61508149740283E-2</v>
+        <v>1.0630463018297655E-2</v>
       </c>
       <c r="B171">
-        <v>4.4675582809285304E-2</v>
+        <v>7.4700304853227303E-2</v>
       </c>
       <c r="C171">
-        <v>7.9084773666059621E-2</v>
+        <v>5.8804892534629269E-2</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>3.3852767329392797E-2</v>
+        <v>0</v>
       </c>
       <c r="B172">
-        <v>7.9084773666059621E-2</v>
+        <v>5.8804892534629269E-2</v>
       </c>
       <c r="C172">
-        <v>9.1741218649501008E-2</v>
+        <v>6.9907815259125372E-2</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>4.0480028658427369E-2</v>
+        <v>7.7371484799492549E-3</v>
       </c>
       <c r="B173">
-        <v>9.1741218649501008E-2</v>
+        <v>6.9907815259125372E-2</v>
       </c>
       <c r="C173">
-        <v>9.2943645209721051E-2</v>
+        <v>6.5336593009283794E-2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>2.4359663263478416E-2</v>
+        <v>0</v>
       </c>
       <c r="B174">
-        <v>9.2943645209721051E-2</v>
+        <v>6.5336593009283794E-2</v>
       </c>
       <c r="C174">
-        <v>7.2095816962873358E-2</v>
+        <v>6.5395358032078549E-2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>2.6867275658248252E-3</v>
+        <v>1.1659802243037191E-3</v>
       </c>
       <c r="B175">
-        <v>7.2095816962873358E-2</v>
+        <v>6.5395358032078549E-2</v>
       </c>
       <c r="C175">
-        <v>5.6492890590237585E-2</v>
+        <v>6.0539909910619444E-2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1.0746910263299302E-3</v>
+        <v>0</v>
       </c>
       <c r="B176">
-        <v>5.6492890590237585E-2</v>
+        <v>6.0539909910619444E-2</v>
       </c>
       <c r="C176">
-        <v>5.6473909883313154E-2</v>
+        <v>4.5890215220733797E-2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>5.3734551316496511E-4</v>
+        <v>0</v>
       </c>
       <c r="B177">
-        <v>5.6473909883313154E-2</v>
+        <v>4.5890215220733797E-2</v>
       </c>
       <c r="C177">
-        <v>6.552140402260602E-2</v>
+        <v>4.7737777152475083E-2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>5.3734551316496511E-4</v>
+        <v>3.0697494249962731E-3</v>
       </c>
       <c r="B178">
-        <v>6.552140402260602E-2</v>
+        <v>4.7737777152475083E-2</v>
       </c>
       <c r="C178">
-        <v>7.6796850224785981E-2</v>
+        <v>7.0897984708809494E-2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>3.5823034210997673E-3</v>
+        <v>7.9091942596841904E-3</v>
       </c>
       <c r="B179">
-        <v>7.6796850224785981E-2</v>
+        <v>7.0897984708809494E-2</v>
       </c>
       <c r="C179">
-        <v>0.10017482113331959</v>
+        <v>0.14604237839027592</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>1.0388679921189324E-2</v>
+        <v>6.995483010298964E-2</v>
       </c>
       <c r="B180">
-        <v>0.10017482113331959</v>
+        <v>0.14604237839027592</v>
       </c>
       <c r="C180">
-        <v>0.13876961045250072</v>
+        <v>0.18871465225709655</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>0.10478237506716818</v>
+        <v>0.11510099180557627</v>
       </c>
       <c r="B181">
-        <v>0.13876961045250072</v>
+        <v>0.18871465225709655</v>
       </c>
       <c r="C181">
-        <v>0.19308243016464899</v>
+        <v>0.19427943705654432</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>0.16156188429159951</v>
+        <v>0.13034018331586927</v>
       </c>
       <c r="B182">
-        <v>0.19308243016464899</v>
+        <v>0.19427943705654432</v>
       </c>
       <c r="C182">
-        <v>0.22944987238108885</v>
+        <v>0.21015635869919547</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>0.18932473580512268</v>
+        <v>0.19021628971032958</v>
       </c>
       <c r="B183">
-        <v>0.22944987238108885</v>
+        <v>0.21015635869919547</v>
       </c>
       <c r="C183">
-        <v>0.28556116781397695</v>
+        <v>0.21543641829825119</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>0.37847035643919041</v>
+        <v>0.16381852420803319</v>
       </c>
       <c r="B184">
-        <v>0.28556116781397695</v>
+        <v>0.21543641829825119</v>
       </c>
       <c r="C184">
-        <v>0.31058469908645359</v>
+        <v>0.19433131776013374</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>0.36324556689951637</v>
+        <v>9.2225263444277741E-2</v>
       </c>
       <c r="B185">
-        <v>0.31058469908645359</v>
+        <v>0.19433131776013374</v>
       </c>
       <c r="C185">
-        <v>0.29356563540126751</v>
+        <v>0.17489411400989444</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>0.39924771628156908</v>
+        <v>4.7329308355336545E-2</v>
       </c>
       <c r="B186">
-        <v>0.29356563540126751</v>
+        <v>0.17489411400989444</v>
       </c>
       <c r="C186">
-        <v>0.27953908081076057</v>
+        <v>0.1283931012961593</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>0.27924055167472683</v>
+        <v>5.8705411072136719E-2</v>
       </c>
       <c r="B187">
-        <v>0.27953908081076057</v>
+        <v>0.1283931012961593</v>
       </c>
       <c r="C187">
-        <v>0.28028590602061682</v>
+        <v>0.11597416790080292</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>0.28049435787211174</v>
+        <v>0</v>
       </c>
       <c r="B188">
-        <v>0.28028590602061682</v>
+        <v>0.11597416790080292</v>
       </c>
       <c r="C188">
-        <v>0.26134559985791239</v>
+        <v>3.38518758082028E-2</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>0.25488088841124845</v>
+        <v>0</v>
       </c>
       <c r="B189">
-        <v>0.26134559985791239</v>
+        <v>3.38518758082028E-2</v>
       </c>
       <c r="C189">
-        <v>0.26666445773457181</v>
+        <v>2.0764447760165172E-2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>0.31739208310943939</v>
+        <v>0</v>
       </c>
       <c r="B190">
-        <v>0.26666445773457181</v>
+        <v>2.0764447760165172E-2</v>
       </c>
       <c r="C190">
-        <v>0.26024839826657326</v>
+        <v>5.181135895114005E-2</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>0.16729356976535911</v>
+        <v>0</v>
       </c>
       <c r="B191">
-        <v>0.26024839826657326</v>
+        <v>5.181135895114005E-2</v>
       </c>
       <c r="C191">
-        <v>0.2093067978944016</v>
+        <v>2.5559204525037207E-2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>7.2362529106215295E-2</v>
+        <v>0</v>
       </c>
       <c r="B192">
-        <v>0.2093067978944016</v>
+        <v>2.5559204525037207E-2</v>
       </c>
       <c r="C192">
-        <v>0.1783301772933065</v>
+        <v>2.9809549085585543E-2</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>9.4035464803868887E-2</v>
+        <v>2.3171835697075047E-3</v>
       </c>
       <c r="B193">
-        <v>0.1783301772933065</v>
+        <v>2.9809549085585543E-2</v>
       </c>
       <c r="C193">
-        <v>0.16842847203570166</v>
+        <v>0.29359641029588263</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>5.4451012000716462E-2</v>
+        <v>0.42472139967921441</v>
       </c>
       <c r="B194">
-        <v>0.16842847203570166</v>
+        <v>0.29359641029588263</v>
       </c>
       <c r="C194">
-        <v>0.14390289653754954</v>
+        <v>0.28007268390682077</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>3.5643919039942684E-2</v>
+        <v>0.19362778262201846</v>
       </c>
       <c r="B195">
-        <v>0.14390289653754954</v>
+        <v>0.28007268390682077</v>
       </c>
       <c r="C195">
-        <v>0.1285807205616126</v>
+        <v>0.23413660550605625</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>1.0209564750134336E-2</v>
+        <v>0.15201851789500007</v>
       </c>
       <c r="B196">
-        <v>0.1285807205616126</v>
+        <v>0.23413660550605625</v>
       </c>
       <c r="C196">
-        <v>0.10790952190242281</v>
+        <v>0.16615052804831076</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>0</v>
+        <v>8.547803901600276E-2</v>
       </c>
       <c r="B197">
-        <v>0.10790952190242281</v>
+        <v>0.16615052804831076</v>
       </c>
       <c r="C197">
-        <v>0.10394956231946784</v>
+        <v>0.44156979091913906</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>0.1275300017911517</v>
+        <v>0.88993388069985446</v>
       </c>
       <c r="B198">
-        <v>0.10394956231946784</v>
+        <v>0.44156979091913906</v>
       </c>
       <c r="C198">
-        <v>0.16667437735778451</v>
+        <v>0.56853334095564767</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>0.10137918681712341</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B199">
-        <v>0.16667437735778451</v>
+        <v>0.56853334095564767</v>
       </c>
       <c r="C199">
-        <v>0.14484442376316334</v>
+        <v>0.60201037216503839</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>5.6958624395486296E-2</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B200">
-        <v>0.14484442376316334</v>
+        <v>0.60201037216503839</v>
       </c>
       <c r="C200">
-        <v>9.0695004220291836E-2</v>
+        <v>0.61354808802330496</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>0</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B201">
-        <v>9.0695004220291836E-2</v>
+        <v>0.61354808802330496</v>
       </c>
       <c r="C201">
-        <v>6.6348631678504758E-2</v>
+        <v>0.56926144385402555</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1.3970983342289092E-2</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B202">
-        <v>6.6348631678504758E-2</v>
+        <v>0.56926144385402555</v>
       </c>
       <c r="C202">
-        <v>0.14464103246736826</v>
+        <v>0.5894653210284555</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>4.9256672040121796E-2</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B203">
-        <v>0.14464103246736826</v>
+        <v>0.5894653210284555</v>
       </c>
       <c r="C203">
-        <v>0.20616490362908393</v>
+        <v>0.54909846870436541</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>0.18986208131828766</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B204">
-        <v>0.20616490362908393</v>
+        <v>0.54909846870436541</v>
       </c>
       <c r="C204">
-        <v>0.21555351717982127</v>
+        <v>0.52125632587521931</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>0.15188966505463014</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B205">
-        <v>0.21555351717982127</v>
+        <v>0.52125632587521931</v>
       </c>
       <c r="C205">
-        <v>0.25119400879422132</v>
+        <v>0.5416144066301255</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>0.23016299480566005</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B206">
-        <v>0.25119400879422132</v>
+        <v>0.5416144066301255</v>
       </c>
       <c r="C206">
-        <v>0.31793291627437975</v>
+        <v>0.53163913734429591</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>0.45513164965072539</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B207">
-        <v>0.31793291627437975</v>
+        <v>0.53163913734429591</v>
       </c>
       <c r="C207">
-        <v>0.34182420672980396</v>
+        <v>0.50151088008686628</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>0.47447608812466419</v>
+        <v>0.98672036243614369</v>
       </c>
       <c r="B208">
-        <v>0.34182420672980396</v>
+        <v>0.50151088008686628</v>
       </c>
       <c r="C208">
-        <v>0.36482566877765071</v>
+        <v>0.52864714524298195</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>0.69084721475909006</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B209">
-        <v>0.36482566877765071</v>
+        <v>0.52864714524298195</v>
       </c>
       <c r="C209">
-        <v>0.41297960851702636</v>
+        <v>0.4976250518049089</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>0.90148665591975641</v>
+        <v>0.9770389183629431</v>
       </c>
       <c r="B210">
-        <v>0.41297960851702636</v>
+        <v>0.4976250518049089</v>
       </c>
       <c r="C210">
-        <v>0.42640971236186848</v>
+        <v>0.55356738361035807</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>0.77968833960236428</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B211">
-        <v>0.42640971236186848</v>
+        <v>0.55356738361035807</v>
       </c>
       <c r="C211">
-        <v>0.39389639367645407</v>
+        <v>0.54789837735343971</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>0.69890739745656461</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B212">
-        <v>0.39389639367645407</v>
+        <v>0.54789837735343971</v>
       </c>
       <c r="C212">
-        <v>0.41259622426837822</v>
+        <v>0.54198001190704814</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>0.80010746910263297</v>
+        <v>0.97389529953532772</v>
       </c>
       <c r="B213">
-        <v>0.41259622426837822</v>
+        <v>0.54198001190704814</v>
       </c>
       <c r="C213">
-        <v>0.42848572950650299</v>
+        <v>0.4693365459141266</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>0.88411248432742251</v>
+        <v>0.90796585212648173</v>
       </c>
       <c r="B214">
-        <v>0.42848572950650299</v>
+        <v>0.4693365459141266</v>
       </c>
       <c r="C214">
-        <v>0.47285733082651848</v>
+        <v>0.46890668652664197</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>0.94</v>
+        <v>0.86666449371201859</v>
       </c>
       <c r="B215">
-        <v>0.47285733082651848</v>
+        <v>0.46890668652664197</v>
       </c>
       <c r="C215">
-        <v>0.50714038476881917</v>
+        <v>0.44176472727819283</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>0.94</v>
+        <v>0.68662026024475487</v>
       </c>
       <c r="B216">
-        <v>0.50714038476881917</v>
+        <v>0.44176472727819283</v>
       </c>
       <c r="C216">
-        <v>0.47562356501503861</v>
+        <v>0.44017489898509982</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>0.82751209027404626</v>
+        <v>0.82791614861911356</v>
       </c>
       <c r="B217">
-        <v>0.47562356501503861</v>
+        <v>0.44017489898509982</v>
       </c>
       <c r="C217">
-        <v>0.39803993931506976</v>
+        <v>0.35346995292455008</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>0.84363245566899514</v>
+        <v>0.5268422959511273</v>
       </c>
       <c r="B218">
-        <v>0.39803993931506976</v>
+        <v>0.35346995292455008</v>
       </c>
       <c r="C218">
-        <v>0.46767611360645689</v>
+        <v>0.40802826221188243</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>0.86691742790614368</v>
+        <v>0.83768794735283914</v>
       </c>
       <c r="B219">
-        <v>0.46767611360645689</v>
+        <v>0.40802826221188243</v>
       </c>
       <c r="C219">
-        <v>0.46598130019188722</v>
+        <v>0.43444316866498073</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>0.91097975998567082</v>
+        <v>0.69092976011638718</v>
       </c>
       <c r="B220">
-        <v>0.46598130019188722</v>
+        <v>0.43444316866498073</v>
       </c>
       <c r="C220">
-        <v>0.4957628151720847</v>
+        <v>0.38314132059371298</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>0.93354827153859932</v>
+        <v>0.38661369009138352</v>
       </c>
       <c r="B221">
-        <v>0.4957628151720847</v>
+        <v>0.38314132059371298</v>
       </c>
       <c r="C221">
-        <v>0.49710052554949824</v>
+        <v>0.32290782171108745</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>0.91187533584094571</v>
+        <v>0.2735976369001446</v>
       </c>
       <c r="B222">
-        <v>0.49710052554949824</v>
+        <v>0.32290782171108745</v>
       </c>
       <c r="C222">
-        <v>0.41198521125830312</v>
+        <v>0.275992244051393</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>0.70517642844348916</v>
+        <v>9.9208699356082175E-2</v>
       </c>
       <c r="B223">
-        <v>0.41198521125830312</v>
+        <v>0.275992244051393</v>
       </c>
       <c r="C223">
-        <v>0.41966940268970715</v>
+        <v>0.30097926111282092</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>0.75765717356260076</v>
+        <v>0.54343983138723051</v>
       </c>
       <c r="B224">
-        <v>0.41966940268970715</v>
+        <v>0.30097926111282092</v>
       </c>
       <c r="C224">
-        <v>0.42575934134371529</v>
+        <v>0.32646343420644025</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>0.75926921010209569</v>
+        <v>0.3263944024228696</v>
       </c>
       <c r="B225">
-        <v>0.42575934134371529</v>
+        <v>0.32646343420644025</v>
       </c>
       <c r="C225">
-        <v>0.37971250737794005</v>
+        <v>0.25694060412903791</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>0.75729894322049074</v>
+        <v>0.1564126671132692</v>
       </c>
       <c r="B226">
-        <v>0.37971250737794005</v>
+        <v>0.25694060412903791</v>
       </c>
       <c r="C226">
-        <v>0.42452440121512491</v>
+        <v>0.22441155378017938</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>0.86960415547196845</v>
+        <v>0.14020153902553384</v>
       </c>
       <c r="B227">
-        <v>0.42452440121512491</v>
+        <v>0.22441155378017938</v>
       </c>
       <c r="C227">
-        <v>0.46987580045248623</v>
+        <v>0.18198470583913687</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>0.74404442056242159</v>
+        <v>3.7426776446173517E-2</v>
       </c>
       <c r="B228">
-        <v>0.46987580045248623</v>
+        <v>0.18198470583913687</v>
       </c>
       <c r="C228">
-        <v>0.44325806369088611</v>
+        <v>0.19299810922972346</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>0.73061078273329749</v>
+        <v>7.2774080925438744E-2</v>
       </c>
       <c r="B229">
-        <v>0.44325806369088611</v>
+        <v>0.19299810922972346</v>
       </c>
       <c r="C229">
-        <v>0.44095589609769686</v>
+        <v>0.13749636231393544</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>0.76249328318108545</v>
+        <v>3.8549203092704085E-2</v>
       </c>
       <c r="B230">
-        <v>0.44095589609769686</v>
+        <v>0.13749636231393544</v>
       </c>
       <c r="C230">
-        <v>0.30562513408428332</v>
+        <v>0.12264437174701859</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>0.19308615439727744</v>
+        <v>1.3167990269301062E-2</v>
       </c>
       <c r="B231">
-        <v>0.30562513408428332</v>
+        <v>0.12264437174701859</v>
       </c>
       <c r="C231">
-        <v>0.30477957362331398</v>
+        <v>7.438408883957226E-2</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>0.70840050152247891</v>
+        <v>0</v>
       </c>
       <c r="B232">
-        <v>0.30477957362331398</v>
+        <v>7.438408883957226E-2</v>
       </c>
       <c r="C232">
-        <v>0.39909702994470908</v>
+        <v>4.8666049154279321E-2</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>0.8325273150635859</v>
+        <v>0</v>
       </c>
       <c r="B233">
-        <v>0.39909702994470908</v>
+        <v>4.8666049154279321E-2</v>
       </c>
       <c r="C233">
-        <v>0.45973506561154953</v>
+        <v>6.1344857978947537E-2</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>0.6937130574959699</v>
+        <v>0</v>
       </c>
       <c r="B234">
-        <v>0.45973506561154953</v>
+        <v>6.1344857978947537E-2</v>
       </c>
       <c r="C234">
-        <v>0.43459068542537771</v>
+        <v>6.3866787118490517E-2</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>0.87927637470893782</v>
+        <v>0</v>
       </c>
       <c r="B235">
-        <v>0.43459068542537771</v>
+        <v>6.3866787118490517E-2</v>
       </c>
       <c r="C235">
-        <v>0.44990394669151468</v>
+        <v>3.5513541014435789E-2</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>0.88876947877485224</v>
+        <v>0</v>
       </c>
       <c r="B236">
-        <v>0.44990394669151468</v>
+        <v>3.5513541014435789E-2</v>
       </c>
       <c r="C236">
-        <v>0.46765027729547481</v>
+        <v>3.3017918586030148E-2</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>0.90524807451191114</v>
+        <v>0</v>
       </c>
       <c r="B237">
-        <v>0.46765027729547481</v>
+        <v>3.3017918586030148E-2</v>
       </c>
       <c r="C237">
-        <v>0.44723904209815168</v>
+        <v>5.1974227753130875E-2</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>0.8828586781300376</v>
+        <v>0</v>
       </c>
       <c r="B238">
-        <v>0.44723904209815168</v>
+        <v>5.1974227753130875E-2</v>
       </c>
       <c r="C238">
-        <v>0.45549410507454186</v>
+        <v>7.4678978530578005E-2</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>0.8685294644456385</v>
+        <v>9.0393507461466321E-3</v>
       </c>
       <c r="B239">
-        <v>0.45549410507454186</v>
+        <v>7.4678978530578005E-2</v>
       </c>
       <c r="C239">
-        <v>0.36081151399282363</v>
+        <v>6.93001488626694E-2</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>0.27207594483252734</v>
+        <v>0</v>
       </c>
       <c r="B240">
-        <v>0.36081151399282363</v>
+        <v>6.93001488626694E-2</v>
       </c>
       <c r="C240">
-        <v>0.27201866816337888</v>
+        <v>5.7116351126060429E-2</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>0.25935876768762312</v>
+        <v>0</v>
       </c>
       <c r="B241">
-        <v>0.27201866816337888</v>
+        <v>5.7116351126060429E-2</v>
       </c>
       <c r="C241">
-        <v>0.27850788406445987</v>
+        <v>0.10113626294035861</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>0.5939459072183414</v>
+        <v>1.0018486764619522E-2</v>
       </c>
       <c r="B242">
-        <v>0.27850788406445987</v>
+        <v>0.10113626294035861</v>
       </c>
       <c r="C242">
-        <v>0.32491505378234409</v>
+        <v>7.9671757316128675E-2</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>0.53519613111230524</v>
+        <v>0</v>
       </c>
       <c r="B243">
-        <v>0.32491505378234409</v>
+        <v>7.9671757316128675E-2</v>
       </c>
       <c r="C243">
-        <v>0.32957241058600278</v>
+        <v>8.8238017221999865E-2</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>0.44348916353215118</v>
+        <v>4.9385794740164343E-2</v>
       </c>
       <c r="B244">
-        <v>0.32957241058600278</v>
+        <v>8.8238017221999865E-2</v>
       </c>
       <c r="C244">
-        <v>0.33674333974032922</v>
+        <v>0.11367650486422104</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>0.70822138635142395</v>
+        <v>2.2931347270156784E-2</v>
       </c>
       <c r="B245">
-        <v>0.33674333974032922</v>
+        <v>0.11367650486422104</v>
       </c>
       <c r="C245">
-        <v>0.33987499655260284</v>
+        <v>0.11645069795927818</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>0.46426652337452984</v>
+        <v>1.2039043988585905E-2</v>
       </c>
       <c r="B246">
-        <v>0.33987499655260284</v>
+        <v>0.11645069795927818</v>
       </c>
       <c r="C246">
-        <v>0.32537035678015336</v>
+        <v>0.14198283137566464</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>0.39835214042629413</v>
+        <v>6.2747103682475575E-2</v>
       </c>
       <c r="B247">
-        <v>0.32537035678015336</v>
+        <v>0.14198283137566464</v>
       </c>
       <c r="C247">
-        <v>0.25975571584978235</v>
+        <v>0.12687146886903727</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>0.19165323302883755</v>
+        <v>1.2496272243006319E-2</v>
       </c>
       <c r="B248">
-        <v>0.25975571584978235</v>
+        <v>0.12687146886903727</v>
       </c>
       <c r="C248">
-        <v>0.23334966664926327</v>
+        <v>0.10620764628947842</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>0.18018986208131829</v>
+        <v>4.823206831707276E-3</v>
       </c>
       <c r="B249">
-        <v>0.23334966664926327</v>
+        <v>0.10620764628947842</v>
       </c>
       <c r="C249">
-        <v>0.20200558414427267</v>
+        <v>8.054271987721344E-2</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>7.8094214579974924E-2</v>
+        <v>2.8272295562925698E-2</v>
       </c>
       <c r="B250">
-        <v>0.20200558414427267</v>
+        <v>8.054271987721344E-2</v>
       </c>
       <c r="C250">
-        <v>0.17660296472688433</v>
+        <v>0.12909446153085477</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>4.5674368619022028E-2</v>
+        <v>4.6426410413122461E-2</v>
       </c>
       <c r="B251">
-        <v>0.17660296472688433</v>
+        <v>0.12909446153085477</v>
       </c>
       <c r="C251">
-        <v>0.18614726151551372</v>
+        <v>0.10509510889048594</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>0.10800644814615798</v>
+        <v>7.4056252384074178E-3</v>
       </c>
       <c r="B252">
-        <v>0.18614726151551372</v>
+        <v>0.10509510889048594</v>
       </c>
       <c r="C252">
-        <v>0.22364560596701907</v>
+        <v>6.0936879086407547E-2</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>0.17051764284434892</v>
+        <v>0</v>
       </c>
       <c r="B253">
-        <v>0.22364560596701907</v>
+        <v>6.0936879086407547E-2</v>
       </c>
       <c r="C253">
-        <v>0.21361795201952286</v>
+        <v>8.5871601134789921E-2</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>9.9229804764463553E-2</v>
+        <v>6.9408557526072475E-3</v>
       </c>
       <c r="B254">
-        <v>0.21361795201952286</v>
+        <v>8.5871601134789921E-2</v>
       </c>
       <c r="C254">
-        <v>0.16215384824400619</v>
+        <v>8.9967476266745075E-2</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>4.5853483790077018E-2</v>
+        <v>0</v>
       </c>
       <c r="B255">
-        <v>0.16215384824400619</v>
+        <v>8.9967476266745075E-2</v>
       </c>
       <c r="C255">
-        <v>0.14201485976572792</v>
+        <v>5.3862555807917427E-2</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1.755328676338886E-2</v>
+        <v>0</v>
       </c>
       <c r="B256">
-        <v>0.14201485976572792</v>
+        <v>5.3862555807917427E-2</v>
       </c>
       <c r="C256">
-        <v>0.1330437656875019</v>
+        <v>7.0904009668882079E-2</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>4.5137023105857065E-2</v>
+        <v>5.411319920911443E-3</v>
       </c>
       <c r="B257">
-        <v>0.1330437656875019</v>
+        <v>7.0904009668882079E-2</v>
       </c>
       <c r="C257">
-        <v>0.1403029764031852</v>
+        <v>0.12339714674074387</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>5.6063048540211359E-2</v>
+        <v>2.774342057126138E-2</v>
       </c>
       <c r="B258">
-        <v>0.1403029764031852</v>
+        <v>0.12339714674074387</v>
       </c>
       <c r="C258">
-        <v>0.16187138772815776</v>
+        <v>0.1557384455066444</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>2.9195772881963102E-2</v>
+        <v>8.0791440198551348E-2</v>
       </c>
       <c r="B259">
-        <v>0.16187138772815776</v>
+        <v>0.1557384455066444</v>
       </c>
       <c r="C259">
-        <v>0.25946464506810113</v>
+        <v>0.16889276672834</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>0.39387426114991941</v>
+        <v>6.0257263364010584E-2</v>
       </c>
       <c r="B260">
-        <v>0.25946464506810113</v>
+        <v>0.16889276672834</v>
       </c>
       <c r="C260">
-        <v>0.24493281813960244</v>
+        <v>0.13002951958849315</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>0.14956116783091528</v>
+        <v>6.9173263389503969E-2</v>
       </c>
       <c r="B261">
-        <v>0.24493281813960244</v>
+        <v>0.13002951958849315</v>
       </c>
       <c r="C261">
-        <v>0.21276401296866057</v>
+        <v>9.3210599415405021E-2</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>0.107648217804048</v>
+        <v>1.0154145300409693E-2</v>
       </c>
       <c r="B262">
-        <v>0.21276401296866057</v>
+        <v>9.3210599415405021E-2</v>
       </c>
       <c r="C262">
-        <v>0.15602355751913075</v>
+        <v>0.10145992354936363</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>2.7762851513523194E-2</v>
+        <v>2.8753630511392979E-2</v>
       </c>
       <c r="B263">
-        <v>0.15602355751913075</v>
+        <v>0.10145992354936363</v>
       </c>
       <c r="C263">
-        <v>9.5839909420395636E-2</v>
+        <v>0.10886921038420193</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>7.1646068421995341E-4</v>
+        <v>3.7381227395157493E-2</v>
       </c>
       <c r="B264">
-        <v>9.5839909420395636E-2</v>
+        <v>0.10886921038420193</v>
       </c>
       <c r="C264">
-        <v>6.4731403013573191E-2</v>
+        <v>7.0184293391117883E-2</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>2.4359663263478416E-2</v>
+        <v>2.3679652680725213E-3</v>
       </c>
       <c r="B265">
-        <v>6.4731403013573191E-2</v>
+        <v>7.0184293391117883E-2</v>
       </c>
       <c r="C265">
-        <v>9.3536139932853576E-2</v>
+        <v>8.9743830858398974E-2</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>4.3704101737417157E-2</v>
+        <v>7.8689926178097443E-3</v>
       </c>
       <c r="B266">
-        <v>9.3536139932853576E-2</v>
+        <v>8.9743830858398974E-2</v>
       </c>
       <c r="C266">
-        <v>0.1161582799618071</v>
+        <v>7.3773692715345701E-2</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>2.1314705355543615E-2</v>
+        <v>9.4953632660498312E-3</v>
       </c>
       <c r="B267">
-        <v>0.1161582799618071</v>
+        <v>7.3773692715345701E-2</v>
       </c>
       <c r="C267">
-        <v>0.12620381150708632</v>
+        <v>7.1875299232606882E-2</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>1.8986208131828768E-2</v>
+        <v>1.1187704965502481E-2</v>
       </c>
       <c r="B268">
-        <v>0.12620381150708632</v>
+        <v>7.1875299232606882E-2</v>
       </c>
       <c r="C268">
-        <v>0.13666426613728075</v>
+        <v>9.9579154493632846E-2</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>2.5434354289808347E-2</v>
+        <v>3.8174843565934563E-2</v>
       </c>
       <c r="B269">
-        <v>0.13666426613728075</v>
+        <v>9.9579154493632846E-2</v>
       </c>
       <c r="C269">
-        <v>0.14698071552653919</v>
+        <v>0.1180671849070429</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>3.7076840408382591E-2</v>
+        <v>1.1697486872005026E-3</v>
       </c>
       <c r="B270">
-        <v>0.14698071552653919</v>
+        <v>0.1180671849070429</v>
       </c>
       <c r="C270">
-        <v>0.16365940821556388</v>
+        <v>0.10111555738189515</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>9.4931040659143838E-3</v>
+        <v>9.9063078475289893E-3</v>
       </c>
       <c r="B271">
-        <v>0.16365940821556388</v>
+        <v>0.10111555738189515</v>
       </c>
       <c r="C271">
-        <v>0.14196618347702217</v>
+        <v>0.10715970213306371</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>0.14723267060720044</v>
+        <v>2.5648164344681455E-2</v>
       </c>
       <c r="B272">
-        <v>0.14196618347702217</v>
+        <v>0.10715970213306371</v>
       </c>
       <c r="C272">
-        <v>0.1341945967376994</v>
+        <v>0.10650257814211503</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>0.13147053555436145</v>
+        <v>1.9288926204329454E-2</v>
       </c>
       <c r="B273">
-        <v>0.1341945967376994</v>
+        <v>0.10650257814211503</v>
       </c>
       <c r="C273">
-        <v>0.19061110490724936</v>
+        <v>0.14170244993839684</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>9.1348737238044056E-2</v>
+        <v>8.5045174982377472E-2</v>
       </c>
       <c r="B274">
-        <v>0.19061110490724936</v>
+        <v>0.14170244993839684</v>
       </c>
       <c r="C274">
-        <v>0.2052474481102996</v>
+        <v>0.23558827059372406</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>0.123052122514777</v>
+        <v>0.20600295825015527</v>
       </c>
       <c r="B275">
-        <v>0.2052474481102996</v>
+        <v>0.23558827059372406</v>
       </c>
       <c r="C275">
-        <v>0.19827984912740679</v>
+        <v>0.25464044753972087</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>0.14723267060720044</v>
+        <v>0.28208855942853078</v>
       </c>
       <c r="B276">
-        <v>0.19827984912740679</v>
+        <v>0.25464044753972087</v>
       </c>
       <c r="C276">
-        <v>0.19210010368865624</v>
+        <v>0.29931215869985589</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>8.5617051764284441E-2</v>
+        <v>0.30899029622877983</v>
       </c>
       <c r="B277">
-        <v>0.19210010368865624</v>
+        <v>0.29931215869985589</v>
       </c>
       <c r="C277">
-        <v>0.22672717144014964</v>
+        <v>0.28813244648627223</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>0.18986208131828766</v>
+        <v>0.21657028477832077</v>
       </c>
       <c r="B278">
-        <v>0.22672717144014964</v>
+        <v>0.28813244648627223</v>
       </c>
       <c r="C278">
-        <v>0.18632526004171296</v>
+        <v>0.28639069104636322</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>6.5018807092960776E-2</v>
+        <v>0.27600401056380475</v>
       </c>
       <c r="B279">
-        <v>0.18632526004171296</v>
+        <v>0.28639069104636322</v>
       </c>
       <c r="C279">
-        <v>0.1903462621372751</v>
+        <v>0.29036128537169514</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>8.2392978685294646E-2</v>
+        <v>0.24486498263243869</v>
       </c>
       <c r="B280">
-        <v>0.1903462621372751</v>
+        <v>0.29036128537169514</v>
       </c>
       <c r="C280">
-        <v>0.17071230696637579</v>
+        <v>0.31411182332730531</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>8.9378470356439185E-2</v>
+        <v>0.39365404341961829</v>
       </c>
       <c r="B281">
-        <v>0.17071230696637579</v>
+        <v>0.31411182332730531</v>
       </c>
       <c r="C281">
-        <v>0.17429972474836969</v>
+        <v>0.35734619937642453</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>0.13935160308078096</v>
+        <v>0.65690243207787491</v>
       </c>
       <c r="B282">
-        <v>0.17429972474836969</v>
+        <v>0.35734619937642453</v>
       </c>
       <c r="C282">
-        <v>0.29403249087331151</v>
+        <v>0.3791323606486694</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>7.3616335303600219E-2</v>
+        <v>0.50923714122351182</v>
       </c>
       <c r="B283">
-        <v>0.29403249087331151</v>
+        <v>0.3791323606486694</v>
       </c>
       <c r="C283">
-        <v>0.17560505404724419</v>
+        <v>0.34988775082974655</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>7.2183413935160312E-2</v>
+        <v>0.49952821683368315</v>
       </c>
       <c r="B284">
-        <v>0.17560505404724419</v>
+        <v>0.34988775082974655</v>
       </c>
       <c r="C284">
-        <v>0.21740193806321359</v>
+        <v>0.32207116133503827</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>0.18466774135769301</v>
+        <v>0.2487530509796772</v>
       </c>
       <c r="B285">
-        <v>0.21740193806321359</v>
+        <v>0.32207116133503827</v>
       </c>
       <c r="C285">
-        <v>0.28068069569978515</v>
+        <v>0.14399724255272056</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>0.21941608454236075</v>
+        <v>1.6559844067017302E-2</v>
       </c>
       <c r="B286">
-        <v>0.28068069569978515</v>
+        <v>0.14399724255272056</v>
       </c>
       <c r="C286">
-        <v>0.16980564630511585</v>
+        <v>0.1150882296393537</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>2.6329930145083287E-2</v>
+        <v>1.9205372269421064E-2</v>
       </c>
       <c r="B287">
-        <v>0.16980564630511585</v>
+        <v>0.1150882296393537</v>
       </c>
       <c r="C287">
-        <v>0.19444960320286941</v>
+        <v>0.12750007266060481</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>9.2244313093319E-2</v>
+        <v>5.4541670855274484E-2</v>
       </c>
       <c r="B288">
-        <v>0.19444960320286941</v>
+        <v>0.12750007266060481</v>
       </c>
       <c r="C288">
-        <v>0.15763284829990126</v>
+        <v>0.15445049288073109</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>5.9108006448146157E-2</v>
+        <v>7.0751458203951317E-2</v>
       </c>
       <c r="B289">
-        <v>0.15763284829990126</v>
+        <v>0.15445049288073109</v>
       </c>
       <c r="C289">
-        <v>0.11620560053731147</v>
+        <v>0.15851843365136556</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>6.4481461579795809E-3</v>
+        <v>7.3716167399230662E-2</v>
       </c>
       <c r="B290">
-        <v>0.11620560053731147</v>
+        <v>0.15851843365136556</v>
       </c>
       <c r="C290">
-        <v>8.8794406573371287E-2</v>
+        <v>0.16627584833932799</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>5.3734551316496511E-4</v>
+        <v>4.0715151500042186E-2</v>
       </c>
       <c r="B291">
-        <v>8.8794406573371287E-2</v>
+        <v>0.16627584833932799</v>
       </c>
       <c r="C291">
-        <v>0.10795988521028781</v>
+        <v>0.14590023675039615</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>1.8090632276553824E-2</v>
+        <v>3.677324362482446E-2</v>
       </c>
       <c r="B292">
-        <v>0.10795988521028781</v>
+        <v>0.14590023675039615</v>
       </c>
       <c r="C292">
-        <v>0.14665214685242117</v>
+        <v>0.11811990314681345</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>0.10030449579079348</v>
+        <v>3.4235183277077856E-2</v>
       </c>
       <c r="B293">
-        <v>0.14665214685242117</v>
+        <v>0.11811990314681345</v>
       </c>
       <c r="C293">
-        <v>0.12406193389556325</v>
+        <v>0.13126542494084395</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>7.1646068421995341E-4</v>
+        <v>6.3819622219580263E-2</v>
       </c>
       <c r="B294">
-        <v>0.12406193389556325</v>
+        <v>0.13126542494084395</v>
       </c>
       <c r="C294">
-        <v>4.2667822965934986E-2</v>
+        <v>0.18428193336184934</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>1.7911517105498835E-4</v>
+        <v>7.7744719951271662E-2</v>
       </c>
       <c r="B295">
-        <v>4.2667822965934986E-2</v>
+        <v>0.18428193336184934</v>
       </c>
       <c r="C295">
-        <v>3.6895257508120165E-2</v>
+        <v>0.198194524794986</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>3.5823034210997673E-3</v>
+        <v>0.10006359017181241</v>
       </c>
       <c r="B296">
-        <v>3.6895257508120165E-2</v>
+        <v>0.198194524794986</v>
       </c>
       <c r="C296">
-        <v>5.7328605235473062E-2</v>
+        <v>0.19206447253634149</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>0</v>
+        <v>6.7914983224355366E-2</v>
       </c>
       <c r="B297">
-        <v>5.7328605235473062E-2</v>
+        <v>0.19206447253634149</v>
       </c>
       <c r="C297">
-        <v>6.5203930724064857E-2</v>
+        <v>0.17049277835163407</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>7.7019523553644997E-3</v>
+        <v>0.10164019943684251</v>
       </c>
       <c r="B298">
-        <v>6.5203930724064857E-2</v>
+        <v>0.17049277835163407</v>
       </c>
       <c r="C298">
-        <v>6.8963017574061411E-2</v>
+        <v>0.27016775278230887</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>7.7019523553644997E-3</v>
+        <v>0.22900567709473146</v>
       </c>
       <c r="B299">
-        <v>6.8963017574061411E-2</v>
+        <v>0.27016775278230887</v>
       </c>
       <c r="C299">
-        <v>7.4981572331196109E-2</v>
+        <v>0.31657822677025504</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>1.1821601289629231E-2</v>
+        <v>0.39323252894695127</v>
       </c>
       <c r="B300">
-        <v>7.4981572331196109E-2</v>
+        <v>0.31657822677025504</v>
       </c>
       <c r="C300">
-        <v>7.5874547028294395E-2</v>
+        <v>0.38819053438205764</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>3.9226222461042452E-2</v>
+        <v>0.66496300590771718</v>
       </c>
       <c r="B301">
-        <v>7.5874547028294395E-2</v>
+        <v>0.38819053438205764</v>
       </c>
       <c r="C301">
-        <v>8.0396585257994507E-2</v>
+        <v>0.41716699201256968</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>1.5762135052838976E-2</v>
+        <v>0.76309224339339443</v>
       </c>
       <c r="B302">
-        <v>8.0396585257994507E-2</v>
+        <v>0.41716699201256968</v>
       </c>
       <c r="C302">
-        <v>9.0932614143022755E-2</v>
+        <v>0.47041152287015287</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>4.4778792763747093E-3</v>
+        <v>0.94009780390010966</v>
       </c>
       <c r="B303">
-        <v>9.0932614143022755E-2</v>
+        <v>0.47041152287015287</v>
       </c>
       <c r="C303">
-        <v>8.7308415552288868E-2</v>
+        <v>0.47743500236986602</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>5.194339960594662E-3</v>
+        <v>0.79108755638896888</v>
       </c>
       <c r="B304">
-        <v>8.7308415552288868E-2</v>
+        <v>0.47743500236986602</v>
       </c>
       <c r="C304">
-        <v>6.578583779982651E-2</v>
+        <v>0.45871616060204534</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>1.7911517105498835E-4</v>
+        <v>0.93497424331042456</v>
       </c>
       <c r="B305">
-        <v>6.578583779982651E-2</v>
+        <v>0.45871616060204534</v>
       </c>
       <c r="C305">
-        <v>3.44816719783076E-2</v>
+        <v>0.467566344734058</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>1.0746910263299302E-3</v>
+        <v>0.83418623414558413</v>
       </c>
       <c r="B306">
-        <v>3.44816719783076E-2</v>
+        <v>0.467566344734058</v>
       </c>
       <c r="C306">
-        <v>4.2103886655481544E-2</v>
+        <v>0.45574050738400551</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>0</v>
+        <v>0.68893250910793991</v>
       </c>
       <c r="B307">
-        <v>4.2103886655481544E-2</v>
+        <v>0.45574050738400551</v>
       </c>
       <c r="C307">
-        <v>3.5093993579999566E-2</v>
+        <v>0.31402422443219807</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>1.7911517105498835E-4</v>
+        <v>9.4621969911685935E-2</v>
       </c>
       <c r="B308">
-        <v>3.5093993579999566E-2</v>
+        <v>0.31402422443219807</v>
       </c>
       <c r="C308">
-        <v>2.8859520229738152E-2</v>
+        <v>0.14380800776889233</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>1.7911517105498835E-4</v>
+        <v>1.5253683990932373E-2</v>
       </c>
       <c r="B309">
-        <v>2.8859520229738152E-2</v>
+        <v>0.14380800776889233</v>
       </c>
       <c r="C309">
-        <v>2.8638041437938168E-2</v>
+        <v>0.11972721712960231</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>1.7911517105498835E-4</v>
+        <v>1.8816438080737453E-2</v>
       </c>
       <c r="B310">
-        <v>2.8638041437938168E-2</v>
+        <v>0.11972721712960231</v>
       </c>
       <c r="C310">
-        <v>2.7609035776259984E-2</v>
+        <v>0.12486684083072264</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>1.7911517105498835E-4</v>
+        <v>2.2372565263092288E-2</v>
       </c>
       <c r="B311">
-        <v>2.7609035776259984E-2</v>
+        <v>0.12486684083072264</v>
       </c>
       <c r="C311">
-        <v>2.0050514136656473E-2</v>
+        <v>8.9809050708306692E-2</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>0</v>
+        <v>1.2517290695537885E-3</v>
       </c>
       <c r="B312">
-        <v>2.0050514136656473E-2</v>
+        <v>8.9809050708306692E-2</v>
       </c>
       <c r="C312">
-        <v>1.6929962565331375E-2</v>
+        <v>5.627879818930067E-2</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>0</v>
+        <v>6.2510366714682044E-4</v>
       </c>
       <c r="B313">
-        <v>1.6929962565331375E-2</v>
+        <v>5.627879818930067E-2</v>
       </c>
       <c r="C313">
-        <v>2.0897646519868848E-2</v>
+        <v>4.8735308264504056E-2</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -3804,43 +3804,43 @@
         <v>0</v>
       </c>
       <c r="B314">
-        <v>2.0897646519868848E-2</v>
+        <v>4.8735308264504056E-2</v>
       </c>
       <c r="C314">
-        <v>2.3023347509017005E-2</v>
+        <v>2.813813333285968E-2</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>0</v>
+        <v>7.9210409439737616E-5</v>
       </c>
       <c r="B315">
-        <v>2.3023347509017005E-2</v>
+        <v>2.813813333285968E-2</v>
       </c>
       <c r="C315">
-        <v>2.6242049896802087E-2</v>
+        <v>3.8010688209553188E-2</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>2.5076123947698368E-3</v>
+        <v>0</v>
       </c>
       <c r="B316">
-        <v>2.6242049896802087E-2</v>
+        <v>3.8010688209553188E-2</v>
       </c>
       <c r="C316">
-        <v>3.1983878465378514E-2</v>
+        <v>5.823591102232633E-2</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>5.0152247895396736E-3</v>
+        <v>1.7090318640813177E-4</v>
       </c>
       <c r="B317">
-        <v>3.1983878465378514E-2</v>
+        <v>5.823591102232633E-2</v>
       </c>
       <c r="C317">
-        <v>3.7940779202205198E-2</v>
+        <v>8.7394053762664375E-2</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -3848,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="B318">
-        <v>3.7940779202205198E-2</v>
+        <v>8.7394053762664375E-2</v>
       </c>
       <c r="C318">
-        <v>4.3336290663456414E-2</v>
+        <v>4.3337074456992399E-2</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -3859,450 +3859,450 @@
         <v>0</v>
       </c>
       <c r="B319">
-        <v>4.3336290663456414E-2</v>
+        <v>4.3337074456992399E-2</v>
       </c>
       <c r="C319">
-        <v>4.8444751590137156E-2</v>
+        <v>4.1657394735577551E-2</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>1.2358946802794197E-2</v>
+        <v>0</v>
       </c>
       <c r="B320">
-        <v>4.8444751590137156E-2</v>
+        <v>4.1657394735577551E-2</v>
       </c>
       <c r="C320">
-        <v>5.4545151252910318E-2</v>
+        <v>4.5452950570414145E-2</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>8.239297868529465E-3</v>
+        <v>0</v>
       </c>
       <c r="B321">
-        <v>5.4545151252910318E-2</v>
+        <v>4.5452950570414145E-2</v>
       </c>
       <c r="C321">
-        <v>6.1212413889969911E-2</v>
+        <v>4.2721095746600754E-2</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>3.5823034210997673E-3</v>
+        <v>0</v>
       </c>
       <c r="B322">
-        <v>6.1212413889969911E-2</v>
+        <v>4.2721095746600754E-2</v>
       </c>
       <c r="C322">
-        <v>6.7180191879310805E-2</v>
+        <v>3.9532581649471807E-2</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>2.1493820526598604E-3</v>
+        <v>0</v>
       </c>
       <c r="B323">
-        <v>6.7180191879310805E-2</v>
+        <v>3.9532581649471807E-2</v>
       </c>
       <c r="C323">
-        <v>7.2313687963255074E-2</v>
+        <v>3.9262539324148922E-2</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>8.9557585527494181E-4</v>
+        <v>0</v>
       </c>
       <c r="B324">
-        <v>7.2313687963255074E-2</v>
+        <v>3.9262539324148922E-2</v>
       </c>
       <c r="C324">
-        <v>7.3284512415785208E-2</v>
+        <v>6.9265302205714696E-2</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>1.7911517105498836E-3</v>
+        <v>6.8866730055479625E-3</v>
       </c>
       <c r="B325">
-        <v>7.3284512415785208E-2</v>
+        <v>6.9265302205714696E-2</v>
       </c>
       <c r="C325">
-        <v>7.1114260503304355E-2</v>
+        <v>0.12353409032980195</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>1.4866559197564034E-2</v>
+        <v>3.7904438785197461E-2</v>
       </c>
       <c r="B326">
-        <v>7.1114260503304355E-2</v>
+        <v>0.12353409032980195</v>
       </c>
       <c r="C326">
-        <v>8.4765170479189925E-2</v>
+        <v>0.12867456706706318</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>2.0777359842378648E-2</v>
+        <v>2.5610368523062615E-2</v>
       </c>
       <c r="B327">
-        <v>8.4765170479189925E-2</v>
+        <v>0.12867456706706318</v>
       </c>
       <c r="C327">
-        <v>9.1825269070074544E-2</v>
+        <v>0.11715341138995818</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>2.8121081855633171E-2</v>
+        <v>2.9621630289692344E-3</v>
       </c>
       <c r="B328">
-        <v>9.1825269070074544E-2</v>
+        <v>0.11715341138995818</v>
       </c>
       <c r="C328">
-        <v>9.8014410453430706E-2</v>
+        <v>9.0746345796710981E-2</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>3.4390112842557767E-2</v>
+        <v>0</v>
       </c>
       <c r="B329">
-        <v>9.8014410453430706E-2</v>
+        <v>9.0746345796710981E-2</v>
       </c>
       <c r="C329">
-        <v>0.10786788765513183</v>
+        <v>6.3868335755391789E-2</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>2.6329930145083287E-2</v>
+        <v>0</v>
       </c>
       <c r="B330">
-        <v>0.10786788765513183</v>
+        <v>6.3868335755391789E-2</v>
       </c>
       <c r="C330">
-        <v>0.11570428722290783</v>
+        <v>6.540787705600376E-2</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>1.1821601289629231E-2</v>
+        <v>0</v>
       </c>
       <c r="B331">
-        <v>0.11570428722290783</v>
+        <v>6.540787705600376E-2</v>
       </c>
       <c r="C331">
-        <v>0.10660277997579298</v>
+        <v>5.1354603172949286E-2</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>2.1672935697653592E-2</v>
+        <v>0</v>
       </c>
       <c r="B332">
-        <v>0.10660277997579298</v>
+        <v>5.1354603172949286E-2</v>
       </c>
       <c r="C332">
-        <v>9.8626739555237347E-2</v>
+        <v>1.381983646428693E-2</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>1.2538061973849185E-2</v>
+        <v>0</v>
       </c>
       <c r="B333">
-        <v>9.8626739555237347E-2</v>
+        <v>1.381983646428693E-2</v>
       </c>
       <c r="C333">
-        <v>9.6717477762944148E-2</v>
+        <v>1.6232199405012988E-2</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>2.1852050868708579E-2</v>
+        <v>0</v>
       </c>
       <c r="B334">
-        <v>9.6717477762944148E-2</v>
+        <v>1.6232199405012988E-2</v>
       </c>
       <c r="C334">
-        <v>0.10126837700765537</v>
+        <v>2.3767173371362721E-2</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>1.3433637829124127E-2</v>
+        <v>0</v>
       </c>
       <c r="B335">
-        <v>0.10126837700765537</v>
+        <v>2.3767173371362721E-2</v>
       </c>
       <c r="C335">
-        <v>0.10009723275763659</v>
+        <v>2.7646111049026874E-2</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>5.3734551316496505E-3</v>
+        <v>0</v>
       </c>
       <c r="B336">
-        <v>0.10009723275763659</v>
+        <v>2.7646111049026874E-2</v>
       </c>
       <c r="C336">
-        <v>0.10511629379347845</v>
+        <v>1.8686252970896423E-2</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>1.9881783987103708E-2</v>
+        <v>0</v>
       </c>
       <c r="B337">
-        <v>0.10511629379347845</v>
+        <v>1.8686252970896423E-2</v>
       </c>
       <c r="C337">
-        <v>0.11461995704953289</v>
+        <v>-2.2625233809695582E-3</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>4.1196489342647323E-2</v>
+        <v>0</v>
       </c>
       <c r="B338">
-        <v>0.11461995704953289</v>
+        <v>-2.2625233809695582E-3</v>
       </c>
       <c r="C338">
-        <v>0.11786433646583194</v>
+        <v>1.4555533379986422E-2</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>2.7941966684578184E-2</v>
+        <v>0</v>
       </c>
       <c r="B339">
-        <v>0.11786433646583194</v>
+        <v>1.4555533379986422E-2</v>
       </c>
       <c r="C339">
-        <v>0.12246216639618281</v>
+        <v>5.7212947072111707E-3</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>4.4778792763747091E-2</v>
+        <v>0</v>
       </c>
       <c r="B340">
-        <v>0.12246216639618281</v>
+        <v>5.7212947072111707E-3</v>
       </c>
       <c r="C340">
-        <v>0.14295770640588099</v>
+        <v>4.0952045245845732E-2</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>6.8959340856170517E-2</v>
+        <v>0</v>
       </c>
       <c r="B341">
-        <v>0.14295770640588099</v>
+        <v>4.0952045245845732E-2</v>
       </c>
       <c r="C341">
-        <v>0.14228291717465902</v>
+        <v>5.1748725811238995E-2</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>4.4062332079527138E-2</v>
+        <v>0</v>
       </c>
       <c r="B342">
-        <v>0.14228291717465902</v>
+        <v>5.1748725811238995E-2</v>
       </c>
       <c r="C342">
-        <v>0.16423155651426669</v>
+        <v>3.6456049962156845E-2</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>0.12179831631739209</v>
+        <v>0</v>
       </c>
       <c r="B343">
-        <v>0.16423155651426669</v>
+        <v>3.6456049962156845E-2</v>
       </c>
       <c r="C343">
-        <v>0.20702307249498694</v>
+        <v>3.0207301783870308E-2</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>0.13988894859394591</v>
+        <v>0</v>
       </c>
       <c r="B344">
-        <v>0.20702307249498694</v>
+        <v>3.0207301783870308E-2</v>
       </c>
       <c r="C344">
-        <v>0.17907950426295999</v>
+        <v>2.7745948009733356E-2</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>5.7495969908651259E-2</v>
+        <v>0</v>
       </c>
       <c r="B345">
-        <v>0.17907950426295999</v>
+        <v>2.7745948009733356E-2</v>
       </c>
       <c r="C345">
-        <v>0.15613682920552652</v>
+        <v>2.8388954339623289E-2</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>5.8391545763926203E-2</v>
+        <v>0</v>
       </c>
       <c r="B346">
-        <v>0.15613682920552652</v>
+        <v>2.8388954339623289E-2</v>
       </c>
       <c r="C346">
-        <v>0.14779571650700452</v>
+        <v>6.5907558031881849E-2</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>7.7019523553644997E-2</v>
+        <v>3.5853712213603072E-3</v>
       </c>
       <c r="B347">
-        <v>0.14779571650700452</v>
+        <v>6.5907558031881849E-2</v>
       </c>
       <c r="C347">
-        <v>0.17446997486214108</v>
+        <v>0.11646040767734618</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>6.4660576750850796E-2</v>
+        <v>5.8546427070542285E-2</v>
       </c>
       <c r="B348">
-        <v>0.17446997486214108</v>
+        <v>0.11646040767734618</v>
       </c>
       <c r="C348">
-        <v>0.12809366357115168</v>
+        <v>0.17980660334949666</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>2.1314705355543615E-2</v>
+        <v>0.14286488124987776</v>
       </c>
       <c r="B349">
-        <v>0.12809366357115168</v>
+        <v>0.17980660334949666</v>
       </c>
       <c r="C349">
-        <v>0.10799268194857616</v>
+        <v>0.22208371612070496</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>2.9374888053018092E-2</v>
+        <v>0.12785821414310361</v>
       </c>
       <c r="B350">
-        <v>0.10799268194857616</v>
+        <v>0.22208371612070496</v>
       </c>
       <c r="C350">
-        <v>9.6113954570564347E-2</v>
+        <v>0.1792850426544596</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>7.1646068421995345E-3</v>
+        <v>7.0955206919962016E-2</v>
       </c>
       <c r="B351">
-        <v>9.6113954570564347E-2</v>
+        <v>0.1792850426544596</v>
       </c>
       <c r="C351">
-        <v>9.0363263243450204E-2</v>
+        <v>0.15252841779178899</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>1.4508328855454057E-2</v>
+        <v>3.0836047368548312E-2</v>
       </c>
       <c r="B352">
-        <v>9.0363263243450204E-2</v>
+        <v>0.15252841779178899</v>
       </c>
       <c r="C352">
-        <v>0.11388303520661054</v>
+        <v>9.5344541800742325E-2</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>4.0838259000537343E-2</v>
+        <v>0</v>
       </c>
       <c r="B353">
-        <v>0.11388303520661054</v>
+        <v>9.5344541800742325E-2</v>
       </c>
       <c r="C353">
-        <v>0.10291049746893337</v>
+        <v>4.487405721238024E-2</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>2.8658427368798138E-2</v>
+        <v>0</v>
       </c>
       <c r="B354">
-        <v>0.10291049746893337</v>
+        <v>4.487405721238024E-2</v>
       </c>
       <c r="C354">
-        <v>0.11226806038313913</v>
+        <v>5.4396738796627847E-2</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>2.0777359842378648E-2</v>
+        <v>0</v>
       </c>
       <c r="B355">
-        <v>0.11226806038313913</v>
+        <v>5.4396738796627847E-2</v>
       </c>
       <c r="C355">
-        <v>0.10015085550452238</v>
+        <v>6.1883314515145713E-2</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>1.0746910263299302E-3</v>
+        <v>0</v>
       </c>
       <c r="B356">
-        <v>0.10015085550452238</v>
+        <v>6.1883314515145713E-2</v>
       </c>
       <c r="C356">
-        <v>8.4458079665226282E-2</v>
+        <v>6.7225836444832612E-2</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>3.5823034210997673E-3</v>
+        <v>0</v>
       </c>
       <c r="B357">
-        <v>8.4458079665226282E-2</v>
+        <v>6.7225836444832612E-2</v>
       </c>
       <c r="C357">
-        <v>6.9884297396473075E-2</v>
+        <v>2.7147803489393198E-2</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>7.7019523553644997E-3</v>
+        <v>0</v>
       </c>
       <c r="B358">
-        <v>6.9884297396473075E-2</v>
+        <v>2.7147803489393198E-2</v>
       </c>
       <c r="C358">
-        <v>5.399647040944585E-2</v>
+        <v>2.162284471244837E-2</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>9.8513344080243589E-3</v>
+        <v>0</v>
       </c>
       <c r="B359">
-        <v>5.399647040944585E-2</v>
+        <v>2.162284471244837E-2</v>
       </c>
       <c r="C359">
-        <v>3.6464878914516434E-2</v>
+        <v>3.2790267383235323E-2</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4310,21 +4310,21 @@
         <v>0</v>
       </c>
       <c r="B360">
-        <v>3.6464878914516434E-2</v>
+        <v>3.2790267383235323E-2</v>
       </c>
       <c r="C360">
-        <v>1.7392176516992271E-2</v>
+        <v>3.629523314250508E-2</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>3.582303421099767E-4</v>
+        <v>0</v>
       </c>
       <c r="B361">
-        <v>1.7392176516992271E-2</v>
+        <v>3.629523314250508E-2</v>
       </c>
       <c r="C361">
-        <v>1.5899961805676193E-2</v>
+        <v>3.4086360614800491E-2</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -4332,21 +4332,21 @@
         <v>0</v>
       </c>
       <c r="B362">
-        <v>1.5899961805676193E-2</v>
+        <v>3.4086360614800491E-2</v>
       </c>
       <c r="C362">
-        <v>1.7856039760421282E-2</v>
+        <v>5.0798920350985481E-2</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>0</v>
+        <v>3.1659573457021015E-2</v>
       </c>
       <c r="B363">
-        <v>1.7856039760421282E-2</v>
+        <v>5.0798920350985481E-2</v>
       </c>
       <c r="C363">
-        <v>1.5932894133689958E-2</v>
+        <v>6.2194931401893118E-2</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -4354,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="B364">
-        <v>1.5932894133689958E-2</v>
+        <v>6.2194931401893118E-2</v>
       </c>
       <c r="C364">
-        <v>1.2823749579810995E-2</v>
+        <v>2.1495589528832959E-2</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -4365,10 +4365,10 @@
         <v>0</v>
       </c>
       <c r="B365">
-        <v>1.2823749579810995E-2</v>
+        <v>2.1495589528832959E-2</v>
       </c>
       <c r="C365">
-        <v>1.0113817032419281E-2</v>
+        <v>5.1075194592308665E-3</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -4376,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="B366">
-        <v>1.0113817032419281E-2</v>
+        <v>5.1075194592308665E-3</v>
       </c>
       <c r="C366">
-        <v>7.8003706703093124E-3</v>
+        <v>1.8682550302796599E-2</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -4387,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="B367">
-        <v>7.8003706703093124E-3</v>
+        <v>1.8682550302796599E-2</v>
       </c>
       <c r="C367">
-        <v>5.1784630404992649E-3</v>
+        <v>1.3589388588750974E-2</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -4398,10 +4398,10 @@
         <v>0</v>
       </c>
       <c r="B368">
-        <v>5.1784630404992649E-3</v>
+        <v>1.3589388588750974E-2</v>
       </c>
       <c r="C368">
-        <v>9.9337153056426337E-3</v>
+        <v>1.1974779158640871E-2</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -4409,10 +4409,10 @@
         <v>0</v>
       </c>
       <c r="B369">
-        <v>9.9337153056426337E-3</v>
+        <v>1.1974779158640871E-2</v>
       </c>
       <c r="C369">
-        <v>1.6124464767178305E-2</v>
+        <v>1.6342489040415787E-2</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -4420,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="B370">
-        <v>1.6124464767178305E-2</v>
+        <v>1.6342489040415787E-2</v>
       </c>
       <c r="C370">
-        <v>2.4989098457002566E-2</v>
+        <v>2.7616697472794157E-2</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -4431,65 +4431,65 @@
         <v>0</v>
       </c>
       <c r="B371">
-        <v>2.4989098457002566E-2</v>
+        <v>2.7616697472794157E-2</v>
       </c>
       <c r="C371">
-        <v>3.8495289511918086E-2</v>
+        <v>5.0128794576247651E-2</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>0</v>
+        <v>5.2969239323114115E-3</v>
       </c>
       <c r="B372">
-        <v>3.8495289511918086E-2</v>
+        <v>5.0128794576247651E-2</v>
       </c>
       <c r="C372">
-        <v>4.4582461937939744E-2</v>
+        <v>8.2897987674467044E-2</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>0</v>
+        <v>1.115263777529653E-2</v>
       </c>
       <c r="B373">
-        <v>4.4582461937939744E-2</v>
+        <v>8.2897987674467044E-2</v>
       </c>
       <c r="C373">
-        <v>4.4837524142104727E-2</v>
+        <v>9.7860294863443706E-2</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>0</v>
+        <v>9.3864379145058869E-3</v>
       </c>
       <c r="B374">
-        <v>4.4837524142104727E-2</v>
+        <v>9.7860294863443706E-2</v>
       </c>
       <c r="C374">
-        <v>4.4775434125119418E-2</v>
+        <v>9.7584372878254208E-2</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>9.6722192369693705E-3</v>
+        <v>4.2522578169880236E-4</v>
       </c>
       <c r="B375">
-        <v>4.4775434125119418E-2</v>
+        <v>9.7584372878254208E-2</v>
       </c>
       <c r="C375">
-        <v>4.4743163477691056E-2</v>
+        <v>7.15241044133164E-2</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>1.3254522658069139E-2</v>
+        <v>1.9005636277403875E-3</v>
       </c>
       <c r="B376">
-        <v>4.4743163477691056E-2</v>
+        <v>7.15241044133164E-2</v>
       </c>
       <c r="C376">
-        <v>4.4689114275313975E-2</v>
+        <v>5.5149378098509012E-2</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -4497,76 +4497,76 @@
         <v>0</v>
       </c>
       <c r="B377">
-        <v>4.4689114275313975E-2</v>
+        <v>5.5149378098509012E-2</v>
       </c>
       <c r="C377">
-        <v>6.7692885405676737E-2</v>
+        <v>5.7319062919496948E-2</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>4.7107289987461935E-2</v>
+        <v>0</v>
       </c>
       <c r="B378">
-        <v>6.7692885405676737E-2</v>
+        <v>5.7319062919496948E-2</v>
       </c>
       <c r="C378">
-        <v>0.13057830394137382</v>
+        <v>5.5792566967483179E-2</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>4.4241447250582128E-2</v>
+        <v>0</v>
       </c>
       <c r="B379">
-        <v>0.13057830394137382</v>
+        <v>5.5792566967483179E-2</v>
       </c>
       <c r="C379">
-        <v>6.8052030885947121E-2</v>
+        <v>8.4604454317622882E-2</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>7.1646068421995341E-4</v>
+        <v>1.3700446791655834E-2</v>
       </c>
       <c r="B380">
-        <v>6.8052030885947121E-2</v>
+        <v>8.4604454317622882E-2</v>
       </c>
       <c r="C380">
-        <v>3.2705573660727849E-2</v>
+        <v>0.15059243623957722</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>2.6867275658248252E-3</v>
+        <v>0.12957814851687013</v>
       </c>
       <c r="B381">
-        <v>3.2705573660727849E-2</v>
+        <v>0.15059243623957722</v>
       </c>
       <c r="C381">
-        <v>4.4841701961157936E-2</v>
+        <v>0.14761309159927072</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>3.582303421099767E-4</v>
+        <v>5.7646647146159889E-3</v>
       </c>
       <c r="B382">
-        <v>4.4841701961157936E-2</v>
+        <v>0.14761309159927072</v>
       </c>
       <c r="C382">
-        <v>4.5801215580607305E-2</v>
+        <v>7.5298697370263831E-2</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
       <c r="B383">
-        <v>4.5801215580607305E-2</v>
+        <v>7.5298697370263831E-2</v>
       </c>
       <c r="C383">
-        <v>4.5821863361272613E-2</v>
+        <v>5.2385201373111583E-2</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -4574,2386 +4574,2386 @@
         <v>0</v>
       </c>
       <c r="B384">
-        <v>4.5821863361272613E-2</v>
+        <v>5.2385201373111583E-2</v>
       </c>
       <c r="C384">
-        <v>4.5147049193956901E-2</v>
+        <v>4.8864084111408301E-2</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>4.4778792763747093E-3</v>
+        <v>0</v>
       </c>
       <c r="B385">
-        <v>4.5147049193956901E-2</v>
+        <v>4.8864084111408301E-2</v>
       </c>
       <c r="C385">
-        <v>4.484178725599168E-2</v>
+        <v>3.8605258904764336E-2</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>5.9108006448146157E-3</v>
+        <v>0</v>
       </c>
       <c r="B386">
-        <v>4.484178725599168E-2</v>
+        <v>3.8605258904764336E-2</v>
       </c>
       <c r="C386">
-        <v>4.2950490812190545E-2</v>
+        <v>4.3140882771039613E-2</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>3.582303421099767E-4</v>
+        <v>0</v>
       </c>
       <c r="B387">
-        <v>4.2950490812190545E-2</v>
+        <v>4.3140882771039613E-2</v>
       </c>
       <c r="C387">
-        <v>3.9696525012236569E-2</v>
+        <v>4.4699722182295017E-2</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>3.582303421099767E-4</v>
+        <v>0</v>
       </c>
       <c r="B388">
-        <v>3.9696525012236569E-2</v>
+        <v>4.4699722182295017E-2</v>
       </c>
       <c r="C388">
-        <v>3.4655870874546565E-2</v>
+        <v>3.5041638076021966E-2</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>5.3734551316496511E-4</v>
+        <v>0</v>
       </c>
       <c r="B389">
-        <v>3.4655870874546565E-2</v>
+        <v>3.5041638076021966E-2</v>
       </c>
       <c r="C389">
-        <v>2.6694991026964477E-2</v>
+        <v>2.3188283559239822E-2</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>5.3734551316496511E-4</v>
+        <v>0</v>
       </c>
       <c r="B390">
-        <v>2.6694991026964477E-2</v>
+        <v>2.3188283559239822E-2</v>
       </c>
       <c r="C390">
-        <v>2.1037408961341656E-2</v>
+        <v>1.8259937101236599E-2</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>5.3734551316496511E-4</v>
+        <v>0</v>
       </c>
       <c r="B391">
-        <v>2.1037408961341656E-2</v>
+        <v>1.8259937101236599E-2</v>
       </c>
       <c r="C391">
-        <v>1.7198575755239247E-2</v>
+        <v>2.7906782915552517E-2</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>3.582303421099767E-4</v>
+        <v>0</v>
       </c>
       <c r="B392">
-        <v>1.7198575755239247E-2</v>
+        <v>2.7906782915552517E-2</v>
       </c>
       <c r="C392">
-        <v>1.6010817950164114E-2</v>
+        <v>4.1151392926294886E-3</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
       <c r="B393">
-        <v>1.6010817950164114E-2</v>
+        <v>4.1151392926294886E-3</v>
       </c>
       <c r="C393">
-        <v>1.5276974338693312E-2</v>
+        <v>9.1492420665451237E-3</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
       <c r="B394">
-        <v>1.5276974338693312E-2</v>
+        <v>9.1492420665451237E-3</v>
       </c>
       <c r="C394">
-        <v>2.0539025927892914E-2</v>
+        <v>3.1604120895224637E-2</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>3.582303421099767E-4</v>
+        <v>0</v>
       </c>
       <c r="B395">
-        <v>2.0539025927892914E-2</v>
+        <v>3.1604120895224637E-2</v>
       </c>
       <c r="C395">
-        <v>5.6284157616746253E-2</v>
+        <v>4.4782283926728887E-2</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>5.5525703027046389E-3</v>
+        <v>0</v>
       </c>
       <c r="B396">
-        <v>5.6284157616746253E-2</v>
+        <v>4.4782283926728887E-2</v>
       </c>
       <c r="C396">
-        <v>9.9060428871002831E-2</v>
+        <v>0.11846127949716301</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>8.4184130395844534E-3</v>
+        <v>5.3281624995126578E-2</v>
       </c>
       <c r="B397">
-        <v>9.9060428871002831E-2</v>
+        <v>0.11846127949716301</v>
       </c>
       <c r="C397">
-        <v>7.0115890889984309E-2</v>
+        <v>0.23027620694023165</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>3.9405337632097441E-3</v>
+        <v>9.2960705790803566E-2</v>
       </c>
       <c r="B398">
-        <v>7.0115890889984309E-2</v>
+        <v>0.23027620694023165</v>
       </c>
       <c r="C398">
-        <v>5.5837578408864087E-2</v>
+        <v>0.21865189441461502</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>3.582303421099767E-4</v>
+        <v>0.11502108098218877</v>
       </c>
       <c r="B399">
-        <v>5.5837578408864087E-2</v>
+        <v>0.21865189441461502</v>
       </c>
       <c r="C399">
-        <v>4.4320622022729517E-2</v>
+        <v>0.23167723576933352</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>3.582303421099767E-4</v>
+        <v>0.1048532197915952</v>
       </c>
       <c r="B400">
-        <v>4.4320622022729517E-2</v>
+        <v>0.23167723576933352</v>
       </c>
       <c r="C400">
-        <v>3.3874359345959469E-2</v>
+        <v>0.26076636009698273</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>1.7911517105498835E-4</v>
+        <v>0.18685823977837543</v>
       </c>
       <c r="B401">
-        <v>3.3874359345959469E-2</v>
+        <v>0.26076636009698273</v>
       </c>
       <c r="C401">
-        <v>2.4818000508591731E-2</v>
+        <v>0.29202813067860306</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>1.7911517105498835E-4</v>
+        <v>0.21783510742621939</v>
       </c>
       <c r="B402">
-        <v>2.4818000508591731E-2</v>
+        <v>0.29202813067860306</v>
       </c>
       <c r="C402">
-        <v>1.9692791515062546E-2</v>
+        <v>0.31131148725827262</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>1.7911517105498835E-4</v>
+        <v>0.31532952005139381</v>
       </c>
       <c r="B403">
-        <v>1.9692791515062546E-2</v>
+        <v>0.31131148725827262</v>
       </c>
       <c r="C403">
-        <v>1.4054455574081309E-2</v>
+        <v>0.28194763017004526</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>1.7911517105498835E-4</v>
+        <v>0.24562762705808441</v>
       </c>
       <c r="B404">
-        <v>1.4054455574081309E-2</v>
+        <v>0.28194763017004526</v>
       </c>
       <c r="C404">
-        <v>1.1844169285410065E-2</v>
+        <v>0.27108772609676446</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>0</v>
+        <v>0.28331988926058099</v>
       </c>
       <c r="B405">
-        <v>1.1844169285410065E-2</v>
+        <v>0.27108772609676446</v>
       </c>
       <c r="C405">
-        <v>2.2381620230534548E-2</v>
+        <v>0.3101104939243462</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>3.582303421099767E-4</v>
+        <v>0.25711264818407603</v>
       </c>
       <c r="B406">
-        <v>2.2381620230534548E-2</v>
+        <v>0.3101104939243462</v>
       </c>
       <c r="C406">
-        <v>3.4724580613651836E-2</v>
+        <v>0.27827506864578733</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>5.0152247895396736E-3</v>
+        <v>0.15397085734934773</v>
       </c>
       <c r="B407">
-        <v>3.4724580613651836E-2</v>
+        <v>0.27827506864578733</v>
       </c>
       <c r="C407">
-        <v>4.7341495861722857E-2</v>
+        <v>0.23765409644192059</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>9.6722192369693705E-3</v>
+        <v>8.9632622574055493E-2</v>
       </c>
       <c r="B408">
-        <v>4.7341495861722857E-2</v>
+        <v>0.23765409644192059</v>
       </c>
       <c r="C408">
-        <v>5.3591684001392817E-2</v>
+        <v>0.15516842970116698</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>1.7911517105498835E-4</v>
+        <v>0.10818644462029371</v>
       </c>
       <c r="B409">
-        <v>5.3591684001392817E-2</v>
+        <v>0.15516842970116698</v>
       </c>
       <c r="C409">
-        <v>6.5298782201986302E-2</v>
+        <v>0.16378086481117837</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>0.8038688876947877</v>
+        <v>7.0423421920400145E-2</v>
       </c>
       <c r="B410">
-        <v>6.5298782201986302E-2</v>
+        <v>0.16378086481117837</v>
       </c>
       <c r="C410">
-        <v>0.38673851980739987</v>
+        <v>0.18924958136464406</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>0.74350707504925673</v>
+        <v>0.25789397221014976</v>
       </c>
       <c r="B411">
-        <v>0.38673851980739987</v>
+        <v>0.18924958136464406</v>
       </c>
       <c r="C411">
-        <v>0.35890165054203893</v>
+        <v>0.20228819925407582</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>0.52695683324377574</v>
+        <v>2.6018350196198699E-2</v>
       </c>
       <c r="B412">
-        <v>0.35890165054203893</v>
+        <v>0.20228819925407582</v>
       </c>
       <c r="C412">
-        <v>0.34059313204453801</v>
+        <v>5.0440644427216748E-2</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>0.69980297331183949</v>
+        <v>0</v>
       </c>
       <c r="B413">
-        <v>0.34059313204453801</v>
+        <v>5.0440644427216748E-2</v>
       </c>
       <c r="C413">
-        <v>0.33328012007252322</v>
+        <v>6.4719710808652339E-2</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>0.6915636754433101</v>
+        <v>2.8841735076795181E-3</v>
       </c>
       <c r="B414">
-        <v>0.33328012007252322</v>
+        <v>6.4719710808652339E-2</v>
       </c>
       <c r="C414">
-        <v>0.32253222134316695</v>
+        <v>5.5217032585994592E-2</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>0.51567257746731143</v>
+        <v>0</v>
       </c>
       <c r="B415">
-        <v>0.32253222134316695</v>
+        <v>5.5217032585994592E-2</v>
       </c>
       <c r="C415">
-        <v>0.3492779174304978</v>
+        <v>6.1591905813406608E-2</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>0.53734551316496504</v>
+        <v>0</v>
       </c>
       <c r="B416">
-        <v>0.3492779174304978</v>
+        <v>6.1591905813406608E-2</v>
       </c>
       <c r="C416">
-        <v>0.32094529227942131</v>
+        <v>6.2151496697968101E-2</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>0.43220490775568693</v>
+        <v>0</v>
       </c>
       <c r="B417">
-        <v>0.32094529227942131</v>
+        <v>6.2151496697968101E-2</v>
       </c>
       <c r="C417">
-        <v>0.42625052668677393</v>
+        <v>6.8447186923189698E-2</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>0.86673831273508861</v>
+        <v>0</v>
       </c>
       <c r="B418">
-        <v>0.42625052668677393</v>
+        <v>6.8447186923189698E-2</v>
       </c>
       <c r="C418">
-        <v>0.47508238512623524</v>
+        <v>5.7639814987382451E-2</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>0.82267598065556158</v>
+        <v>0</v>
       </c>
       <c r="B419">
-        <v>0.47508238512623524</v>
+        <v>5.7639814987382451E-2</v>
       </c>
       <c r="C419">
-        <v>0.44487880875197428</v>
+        <v>5.6003181649272725E-2</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>0.94322049077556869</v>
+        <v>0</v>
       </c>
       <c r="B420">
-        <v>0.44487880875197428</v>
+        <v>5.6003181649272725E-2</v>
       </c>
       <c r="C420">
-        <v>0.51424274677756043</v>
+        <v>0.12129246530139015</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>0.83682607916890561</v>
+        <v>1.747953707331561E-2</v>
       </c>
       <c r="B421">
-        <v>0.51424274677756043</v>
+        <v>0.12129246530139015</v>
       </c>
       <c r="C421">
-        <v>0.55305580210735161</v>
+        <v>0.12978935646047951</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>0.94</v>
+        <v>3.0799521058048375E-2</v>
       </c>
       <c r="B422">
-        <v>0.55305580210735161</v>
+        <v>0.12978935646047951</v>
       </c>
       <c r="C422">
-        <v>0.58353291187062262</v>
+        <v>0.14837308540354782</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>0.90721834139351598</v>
+        <v>1.2680389219653648E-2</v>
       </c>
       <c r="B423">
-        <v>0.58353291187062262</v>
+        <v>0.14837308540354782</v>
       </c>
       <c r="C423">
-        <v>0.58714839991149526</v>
+        <v>8.0411874697052535E-2</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="B424">
-        <v>0.58714839991149526</v>
+        <v>8.0411874697052535E-2</v>
       </c>
       <c r="C424">
-        <v>0.62489850312371398</v>
+        <v>9.843827401228783E-2</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>0.94</v>
+        <v>6.2879296923511407E-2</v>
       </c>
       <c r="B425">
-        <v>0.62489850312371398</v>
+        <v>9.843827401228783E-2</v>
       </c>
       <c r="C425">
-        <v>0.58660559297426607</v>
+        <v>0.18915735505371947</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>0.89521762493283186</v>
+        <v>0.13204546576774179</v>
       </c>
       <c r="B426">
-        <v>0.58660559297426607</v>
+        <v>0.18915735505371947</v>
       </c>
       <c r="C426">
-        <v>0.57638623498761499</v>
+        <v>0.22032660456594547</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>0.90954683861723085</v>
+        <v>0.18158283885339849</v>
       </c>
       <c r="B427">
-        <v>0.57638623498761499</v>
+        <v>0.22032660456594547</v>
       </c>
       <c r="C427">
-        <v>0.56501471668696734</v>
+        <v>0.19438247243067933</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>0.94</v>
+        <v>4.0816674462110243E-2</v>
       </c>
       <c r="B428">
-        <v>0.56501471668696734</v>
+        <v>0.19438247243067933</v>
       </c>
       <c r="C428">
-        <v>0.57173647384816462</v>
+        <v>9.4269680144770024E-2</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="B429">
-        <v>0.57173647384816462</v>
+        <v>9.4269680144770024E-2</v>
       </c>
       <c r="C429">
-        <v>0.59173998329338462</v>
+        <v>2.9941333932352363E-2</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="B430">
-        <v>0.59173998329338462</v>
+        <v>2.9941333932352363E-2</v>
       </c>
       <c r="C430">
-        <v>0.50914943876298835</v>
+        <v>9.9590055360899311E-3</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>0.91330825720938569</v>
+        <v>0</v>
       </c>
       <c r="B431">
-        <v>0.50914943876298835</v>
+        <v>9.9590055360899311E-3</v>
       </c>
       <c r="C431">
-        <v>0.494731098919025</v>
+        <v>1.6614449798578856E-2</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>0.84667741357692994</v>
+        <v>0</v>
       </c>
       <c r="B432">
-        <v>0.494731098919025</v>
+        <v>1.6614449798578856E-2</v>
       </c>
       <c r="C432">
-        <v>0.53252511127209989</v>
+        <v>1.9855304852105883E-2</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>0.90990506895934087</v>
+        <v>0</v>
       </c>
       <c r="B433">
-        <v>0.53252511127209989</v>
+        <v>1.9855304852105883E-2</v>
       </c>
       <c r="C433">
-        <v>0.38010415031986766</v>
+        <v>2.0514369267124796E-2</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>0.86046928174816406</v>
+        <v>0</v>
       </c>
       <c r="B434">
-        <v>0.38010415031986766</v>
+        <v>2.0514369267124796E-2</v>
       </c>
       <c r="C434">
-        <v>0.47611936507112956</v>
+        <v>1.0497461153800668E-2</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="B435">
-        <v>0.47611936507112956</v>
+        <v>1.0497461153800668E-2</v>
       </c>
       <c r="C435">
-        <v>0.47038011034045496</v>
+        <v>3.9444159401353401E-2</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>0.77664338169442948</v>
+        <v>0</v>
       </c>
       <c r="B436">
-        <v>0.47038011034045496</v>
+        <v>3.9444159401353401E-2</v>
       </c>
       <c r="C436">
-        <v>0.4592091921743372</v>
+        <v>5.4787357313306619E-2</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>0.89091886082751204</v>
+        <v>3.1386032673997614E-3</v>
       </c>
       <c r="B437">
-        <v>0.4592091921743372</v>
+        <v>5.4787357313306619E-2</v>
       </c>
       <c r="C437">
-        <v>0.46507873297242514</v>
+        <v>9.3355725570325093E-2</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>0.84381157084005021</v>
+        <v>2.4864515692125944E-3</v>
       </c>
       <c r="B438">
-        <v>0.46507873297242514</v>
+        <v>9.3355725570325093E-2</v>
       </c>
       <c r="C438">
-        <v>0.45407023365892374</v>
+        <v>7.9618426795733305E-2</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>0.76285151352319547</v>
+        <v>3.2891245970475665E-2</v>
       </c>
       <c r="B439">
-        <v>0.45407023365892374</v>
+        <v>7.9618426795733305E-2</v>
       </c>
       <c r="C439">
-        <v>0.41222138684354226</v>
+        <v>0.1332167706576706</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>0.59251298584990153</v>
+        <v>3.9890117026353859E-2</v>
       </c>
       <c r="B440">
-        <v>0.41222138684354226</v>
+        <v>0.1332167706576706</v>
       </c>
       <c r="C440">
-        <v>0.38481678847842044</v>
+        <v>0.10915785767377237</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>0.67383127350886618</v>
+        <v>2.4062922157810838E-2</v>
       </c>
       <c r="B441">
-        <v>0.38481678847842044</v>
+        <v>0.10915785767377237</v>
       </c>
       <c r="C441">
-        <v>0.38032524888130215</v>
+        <v>0.11961250426846209</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>0.59931936234999106</v>
+        <v>3.1467215934727975E-2</v>
       </c>
       <c r="B442">
-        <v>0.38032524888130215</v>
+        <v>0.11961250426846209</v>
       </c>
       <c r="C442">
-        <v>0.37279694446566902</v>
+        <v>0.1342534722393722</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>0.56080960057316853</v>
+        <v>4.4586380337937812E-2</v>
       </c>
       <c r="B443">
-        <v>0.37279694446566902</v>
+        <v>0.1342534722393722</v>
       </c>
       <c r="C443">
-        <v>0.3704817849064686</v>
+        <v>0.16246831311291057</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>0.67436861902203116</v>
+        <v>7.9738894813931593E-2</v>
       </c>
       <c r="B444">
-        <v>0.3704817849064686</v>
+        <v>0.16246831311291057</v>
       </c>
       <c r="C444">
-        <v>0.31093801273969784</v>
+        <v>0.19179249423398281</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>0.43417517463729177</v>
+        <v>0.12318152665306654</v>
       </c>
       <c r="B445">
-        <v>0.31093801273969784</v>
+        <v>0.19179249423398281</v>
       </c>
       <c r="C445">
-        <v>0.28902515944059359</v>
+        <v>0.20151969916512799</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>0.48844707146695326</v>
+        <v>9.9988834549704864E-2</v>
       </c>
       <c r="B446">
-        <v>0.28902515944059359</v>
+        <v>0.20151969916512799</v>
       </c>
       <c r="C446">
-        <v>0.30907473780075062</v>
+        <v>0.17694240864898833</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>0.32545226580691383</v>
+        <v>3.604366878058754E-2</v>
       </c>
       <c r="B447">
-        <v>0.30907473780075062</v>
+        <v>0.17694240864898833</v>
       </c>
       <c r="C447">
-        <v>0.30104661307024944</v>
+        <v>0.1101586829736052</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>0.50564212788823215</v>
+        <v>7.2190288708232258E-3</v>
       </c>
       <c r="B448">
-        <v>0.30104661307024944</v>
+        <v>0.1101586829736052</v>
       </c>
       <c r="C448">
-        <v>0.28193301667931531</v>
+        <v>7.8550870211427926E-2</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>0.22729715206878023</v>
+        <v>2.3413591840732019E-3</v>
       </c>
       <c r="B449">
-        <v>0.28193301667931531</v>
+        <v>7.8550870211427926E-2</v>
       </c>
       <c r="C449">
-        <v>0.22400146338297661</v>
+        <v>9.1660168737732278E-2</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>0.22353573347662548</v>
+        <v>0</v>
       </c>
       <c r="B450">
-        <v>0.22400146338297661</v>
+        <v>9.1660168737732278E-2</v>
       </c>
       <c r="C450">
-        <v>0.24963415015207788</v>
+        <v>5.342933323551232E-2</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>0.25326885187175352</v>
+        <v>0</v>
       </c>
       <c r="B451">
-        <v>0.24963415015207788</v>
+        <v>5.342933323551232E-2</v>
       </c>
       <c r="C451">
-        <v>0.24254403304596267</v>
+        <v>2.5646115560416367E-2</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>0.19541465162099231</v>
+        <v>0</v>
       </c>
       <c r="B452">
-        <v>0.24254403304596267</v>
+        <v>2.5646115560416367E-2</v>
       </c>
       <c r="C452">
-        <v>0.21044264035333921</v>
+        <v>2.1058389482899498E-2</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>0.11409636396202759</v>
+        <v>0</v>
       </c>
       <c r="B453">
-        <v>0.21044264035333921</v>
+        <v>2.1058389482899498E-2</v>
       </c>
       <c r="C453">
-        <v>0.16605159826615107</v>
+        <v>9.6629754042008627E-3</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>6.9496686369335481E-2</v>
+        <v>0</v>
       </c>
       <c r="B454">
-        <v>0.16605159826615107</v>
+        <v>9.6629754042008627E-3</v>
       </c>
       <c r="C454">
-        <v>0.12237503428996246</v>
+        <v>6.4750527928182844E-3</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>3.0091348737238045E-2</v>
+        <v>0</v>
       </c>
       <c r="B455">
-        <v>0.12237503428996246</v>
+        <v>6.4750527928182844E-3</v>
       </c>
       <c r="C455">
-        <v>7.8268451866954539E-2</v>
+        <v>1.9257008356966993E-2</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>9.4931040659143838E-3</v>
+        <v>0</v>
       </c>
       <c r="B456">
-        <v>7.8268451866954539E-2</v>
+        <v>1.9257008356966993E-2</v>
       </c>
       <c r="C456">
-        <v>4.1612170323072899E-2</v>
+        <v>3.6858915089475836E-2</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>5.3734551316496511E-4</v>
+        <v>0</v>
       </c>
       <c r="B457">
-        <v>4.1612170323072899E-2</v>
+        <v>3.6858915089475836E-2</v>
       </c>
       <c r="C457">
-        <v>4.5171736079824359E-2</v>
+        <v>3.0725759803856591E-2</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>2.8658427368798136E-3</v>
+        <v>0</v>
       </c>
       <c r="B458">
-        <v>4.5171736079824359E-2</v>
+        <v>3.0725759803856591E-2</v>
       </c>
       <c r="C458">
-        <v>4.6148056428935907E-2</v>
+        <v>2.9508552165470686E-2</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>8.5975282106394418E-3</v>
+        <v>0</v>
       </c>
       <c r="B459">
-        <v>4.6148056428935907E-2</v>
+        <v>2.9508552165470686E-2</v>
       </c>
       <c r="C459">
-        <v>4.9082643982321976E-2</v>
+        <v>5.0614855804915988E-2</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>6.4481461579795809E-3</v>
+        <v>3.3076463311206623E-2</v>
       </c>
       <c r="B460">
-        <v>4.9082643982321976E-2</v>
+        <v>5.0614855804915988E-2</v>
       </c>
       <c r="C460">
-        <v>4.9811645801720116E-2</v>
+        <v>0.10289675959967026</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>6.2690309869245925E-3</v>
+        <v>1.0370170515744301E-2</v>
       </c>
       <c r="B461">
-        <v>4.9811645801720116E-2</v>
+        <v>0.10289675959967026</v>
       </c>
       <c r="C461">
-        <v>4.8951259321466538E-2</v>
+        <v>0.10010656685938871</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>7.1646068421995341E-4</v>
+        <v>2.9590514518663426E-2</v>
       </c>
       <c r="B462">
-        <v>4.8951259321466538E-2</v>
+        <v>0.10010656685938871</v>
       </c>
       <c r="C462">
-        <v>4.5445725549467075E-2</v>
+        <v>0.13117486326626948</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>0</v>
+        <v>6.0644613656594792E-2</v>
       </c>
       <c r="B463">
-        <v>4.5445725549467075E-2</v>
+        <v>0.13117486326626948</v>
       </c>
       <c r="C463">
-        <v>4.1466560997166439E-2</v>
+        <v>0.12487718734549821</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>0</v>
+        <v>1.4824879491621293E-2</v>
       </c>
       <c r="B464">
-        <v>4.1466560997166439E-2</v>
+        <v>0.12487718734549821</v>
       </c>
       <c r="C464">
-        <v>3.6756919408573202E-2</v>
+        <v>0.10553997901399582</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>0</v>
+        <v>6.456638601931056E-3</v>
       </c>
       <c r="B465">
-        <v>3.6756919408573202E-2</v>
+        <v>0.10553997901399582</v>
       </c>
       <c r="C465">
-        <v>3.3699704236194672E-2</v>
+        <v>7.4661552117532878E-2</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>0</v>
+        <v>3.342430491017221E-2</v>
       </c>
       <c r="B466">
-        <v>3.3699704236194672E-2</v>
+        <v>7.4661552117532878E-2</v>
       </c>
       <c r="C466">
-        <v>3.4490726529068649E-2</v>
+        <v>0.10380741550920695</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>0</v>
+        <v>4.4953167300372222E-2</v>
       </c>
       <c r="B467">
-        <v>3.4490726529068649E-2</v>
+        <v>0.10380741550920695</v>
       </c>
       <c r="C467">
-        <v>3.8511897867170228E-2</v>
+        <v>0.15212206802369491</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>3.4031882500447789E-3</v>
+        <v>7.1104802398671479E-2</v>
       </c>
       <c r="B468">
-        <v>3.8511897867170228E-2</v>
+        <v>0.15212206802369491</v>
       </c>
       <c r="C468">
-        <v>4.4415912882294559E-2</v>
+        <v>0.18145562425908596</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>1.0746910263299302E-3</v>
+        <v>0.11195096477211013</v>
       </c>
       <c r="B469">
-        <v>4.4415912882294559E-2</v>
+        <v>0.18145562425908596</v>
       </c>
       <c r="C469">
-        <v>5.0974352727816918E-2</v>
+        <v>0.1985568809665009</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>0</v>
+        <v>0.16102710114364313</v>
       </c>
       <c r="B470">
-        <v>5.0974352727816918E-2</v>
+        <v>0.1985568809665009</v>
       </c>
       <c r="C470">
-        <v>5.813056395758124E-2</v>
+        <v>0.2134070332120116</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>1.7911517105498835E-4</v>
+        <v>0.16433670796245589</v>
       </c>
       <c r="B471">
-        <v>5.813056395758124E-2</v>
+        <v>0.2134070332120116</v>
       </c>
       <c r="C471">
-        <v>6.6204466576915866E-2</v>
+        <v>0.20373685577653047</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>5.3734551316496511E-4</v>
+        <v>0.10143968231361535</v>
       </c>
       <c r="B472">
-        <v>6.6204466576915866E-2</v>
+        <v>0.20373685577653047</v>
       </c>
       <c r="C472">
-        <v>6.7699253118052055E-2</v>
+        <v>0.16039132451455126</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>3.2240730789897904E-3</v>
+        <v>9.397242207065E-2</v>
       </c>
       <c r="B473">
-        <v>6.7699253118052055E-2</v>
+        <v>0.16039132451455126</v>
       </c>
       <c r="C473">
-        <v>6.5919123356693157E-2</v>
+        <v>0.17324710740992177</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>1.4687444026509046E-2</v>
+        <v>0.1171239946582186</v>
       </c>
       <c r="B474">
-        <v>6.5919123356693157E-2</v>
+        <v>0.17324710740992177</v>
       </c>
       <c r="C474">
-        <v>6.3208154086826202E-2</v>
+        <v>0.1734046685929102</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>4.4778792763747093E-3</v>
+        <v>7.1751502931426292E-2</v>
       </c>
       <c r="B475">
-        <v>6.3208154086826202E-2</v>
+        <v>0.1734046685929102</v>
       </c>
       <c r="C475">
-        <v>5.8829315354787991E-2</v>
+        <v>0.10883001719310213</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>8.9557585527494181E-4</v>
+        <v>4.238248107211396E-3</v>
       </c>
       <c r="B476">
-        <v>5.8829315354787991E-2</v>
+        <v>0.10883001719310213</v>
       </c>
       <c r="C476">
-        <v>5.0141834112283561E-2</v>
+        <v>0.10974791401077491</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>8.9557585527494181E-4</v>
+        <v>2.7233808598789284E-2</v>
       </c>
       <c r="B477">
-        <v>5.0141834112283561E-2</v>
+        <v>0.10974791401077491</v>
       </c>
       <c r="C477">
-        <v>4.2613204105577472E-2</v>
+        <v>8.8621371989039646E-2</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>3.582303421099767E-4</v>
+        <v>1.2659414574801998E-2</v>
       </c>
       <c r="B478">
-        <v>4.2613204105577472E-2</v>
+        <v>8.8621371989039646E-2</v>
       </c>
       <c r="C478">
-        <v>3.4902647192358055E-2</v>
+        <v>0.10977844021030966</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>3.582303421099767E-4</v>
+        <v>2.7283044081688062E-2</v>
       </c>
       <c r="B479">
-        <v>3.4902647192358055E-2</v>
+        <v>0.10977844021030966</v>
       </c>
       <c r="C479">
-        <v>2.7775050082208978E-2</v>
+        <v>0.16357267914341603</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>1.7911517105498835E-4</v>
+        <v>0.10514531685759321</v>
       </c>
       <c r="B480">
-        <v>2.7775050082208978E-2</v>
+        <v>0.16357267914341603</v>
       </c>
       <c r="C480">
-        <v>2.2494202253655886E-2</v>
+        <v>0.1339705070967496</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>1.7911517105498835E-4</v>
+        <v>2.6781894474113145E-2</v>
       </c>
       <c r="B481">
-        <v>2.2494202253655886E-2</v>
+        <v>0.1339705070967496</v>
       </c>
       <c r="C481">
-        <v>1.8196166437561685E-2</v>
+        <v>0.1700268308733556</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>0</v>
+        <v>0.11047612450995914</v>
       </c>
       <c r="B482">
-        <v>1.8196166437561685E-2</v>
+        <v>0.1700268308733556</v>
       </c>
       <c r="C482">
-        <v>2.3819911348897566E-2</v>
+        <v>0.1959708916031323</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>0</v>
+        <v>8.1245680971024262E-2</v>
       </c>
       <c r="B483">
-        <v>2.3819911348897566E-2</v>
+        <v>0.1959708916031323</v>
       </c>
       <c r="C483">
-        <v>3.0184364310524115E-2</v>
+        <v>0.16854553944174119</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>0</v>
+        <v>8.929893226516851E-2</v>
       </c>
       <c r="B484">
-        <v>3.0184364310524115E-2</v>
+        <v>0.16854553944174119</v>
       </c>
       <c r="C484">
-        <v>3.6602937084389935E-2</v>
+        <v>0.16909689490391844</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>5.3734551316496511E-4</v>
+        <v>0.15470819575211758</v>
       </c>
       <c r="B485">
-        <v>3.6602937084389935E-2</v>
+        <v>0.16909689490391844</v>
       </c>
       <c r="C485">
-        <v>4.3186800819629667E-2</v>
+        <v>0.21057198398925597</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>7.1646068421995341E-4</v>
+        <v>0.15300781923139567</v>
       </c>
       <c r="B486">
-        <v>4.3186800819629667E-2</v>
+        <v>0.21057198398925597</v>
       </c>
       <c r="C486">
-        <v>5.019151661984337E-2</v>
+        <v>0.21615319214889814</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>5.3734551316496511E-4</v>
+        <v>0.1214335266090442</v>
       </c>
       <c r="B487">
-        <v>5.019151661984337E-2</v>
+        <v>0.21615319214889814</v>
       </c>
       <c r="C487">
-        <v>5.8143089432347014E-2</v>
+        <v>0.21376286025662705</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>3.582303421099767E-4</v>
+        <v>0.11947779043365157</v>
       </c>
       <c r="B488">
-        <v>5.8143089432347014E-2</v>
+        <v>0.21376286025662705</v>
       </c>
       <c r="C488">
-        <v>6.671776287898841E-2</v>
+        <v>0.18722845241842098</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>1.7911517105498836E-3</v>
+        <v>7.8541666871447882E-2</v>
       </c>
       <c r="B489">
-        <v>6.671776287898841E-2</v>
+        <v>0.18722845241842098</v>
       </c>
       <c r="C489">
-        <v>7.7300770798459942E-2</v>
+        <v>0.16772981144164695</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>1.6120365394948953E-2</v>
+        <v>6.7327789677037453E-2</v>
       </c>
       <c r="B490">
-        <v>7.7300770798459942E-2</v>
+        <v>0.16772981144164695</v>
       </c>
       <c r="C490">
-        <v>9.0854379931668935E-2</v>
+        <v>0.18599681270825924</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>5.4630127171771452E-2</v>
+        <v>7.3514763929378876E-2</v>
       </c>
       <c r="B491">
-        <v>9.0854379931668935E-2</v>
+        <v>0.18599681270825924</v>
       </c>
       <c r="C491">
-        <v>0.10300259173627439</v>
+        <v>0.15409423006484479</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>7.1825183593050332E-2</v>
+        <v>9.3173316631006267E-2</v>
       </c>
       <c r="B492">
-        <v>0.10300259173627439</v>
+        <v>0.15409423006484479</v>
       </c>
       <c r="C492">
-        <v>0.11366380767441195</v>
+        <v>0.21440959807787163</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>9.2244313093319E-2</v>
+        <v>0.13426400178865022</v>
       </c>
       <c r="B493">
-        <v>0.11366380767441195</v>
+        <v>0.21440959807787163</v>
       </c>
       <c r="C493">
-        <v>0.12261759279917561</v>
+        <v>0.21952896383614978</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>7.0213147053555441E-2</v>
+        <v>0.14832287064576288</v>
       </c>
       <c r="B494">
-        <v>0.12261759279917561</v>
+        <v>0.21952896383614978</v>
       </c>
       <c r="C494">
-        <v>0.13152768877876206</v>
+        <v>0.23680070584428928</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>5.1585169263836647E-2</v>
+        <v>0.17030071388743678</v>
       </c>
       <c r="B495">
-        <v>0.13152768877876206</v>
+        <v>0.23680070584428928</v>
       </c>
       <c r="C495">
-        <v>0.13253108737590533</v>
+        <v>0.23347866882590443</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>5.0868708579616694E-2</v>
+        <v>0.19046789350341758</v>
       </c>
       <c r="B496">
-        <v>0.13253108737590533</v>
+        <v>0.23347866882590443</v>
       </c>
       <c r="C496">
-        <v>0.13075929702126091</v>
+        <v>0.22418722985552944</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>3.5643919039942684E-2</v>
+        <v>0.12514628410444817</v>
       </c>
       <c r="B497">
-        <v>0.13075929702126091</v>
+        <v>0.22418722985552944</v>
       </c>
       <c r="C497">
-        <v>0.13234336433522298</v>
+        <v>0.20046322183465382</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>4.5853483790077018E-2</v>
+        <v>0.16055495322967209</v>
       </c>
       <c r="B498">
-        <v>0.13234336433522298</v>
+        <v>0.20046322183465382</v>
       </c>
       <c r="C498">
-        <v>0.14284418064695234</v>
+        <v>0.21092267757664443</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>3.8509761776822499E-2</v>
+        <v>7.2298601735255597E-2</v>
       </c>
       <c r="B499">
-        <v>0.14284418064695234</v>
+        <v>0.21092267757664443</v>
       </c>
       <c r="C499">
-        <v>0.1570833796784146</v>
+        <v>0.20562190047655521</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>6.0899158158696044E-2</v>
+        <v>9.8468415746076982E-2</v>
       </c>
       <c r="B500">
-        <v>0.1570833796784146</v>
+        <v>0.20562190047655521</v>
       </c>
       <c r="C500">
-        <v>0.1675161460502092</v>
+        <v>0.1755118052094661</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>0.11875335840945728</v>
+        <v>7.8729448651187112E-2</v>
       </c>
       <c r="B501">
-        <v>0.1675161460502092</v>
+        <v>0.1755118052094661</v>
       </c>
       <c r="C501">
-        <v>0.16163278350526511</v>
+        <v>0.16989262504379599</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>9.8692459251298589E-2</v>
+        <v>7.5674042452137338E-2</v>
       </c>
       <c r="B502">
-        <v>0.16163278350526511</v>
+        <v>0.16989262504379599</v>
       </c>
       <c r="C502">
-        <v>0.16160972701790735</v>
+        <v>0.16364484719962069</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>7.0571377395665408E-2</v>
+        <v>4.8798535343351726E-2</v>
       </c>
       <c r="B503">
-        <v>0.16160972701790735</v>
+        <v>0.16364484719962069</v>
       </c>
       <c r="C503">
-        <v>0.16134715397849778</v>
+        <v>0.13806177422809632</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>5.2301629948056601E-2</v>
+        <v>3.8319681134678561E-2</v>
       </c>
       <c r="B504">
-        <v>0.16134715397849778</v>
+        <v>0.13806177422809632</v>
       </c>
       <c r="C504">
-        <v>0.16140377675105705</v>
+        <v>0.16407892367651816</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>4.1017374171592333E-2</v>
+        <v>0.11940758497581803</v>
       </c>
       <c r="B505">
-        <v>0.16140377675105705</v>
+        <v>0.16407892367651816</v>
       </c>
       <c r="C505">
-        <v>0.16213498421583625</v>
+        <v>0.22254377902266767</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>3.0449579079348022E-2</v>
+        <v>8.9974048900029455E-2</v>
       </c>
       <c r="B506">
-        <v>0.16213498421583625</v>
+        <v>0.22254377902266767</v>
       </c>
       <c r="C506">
-        <v>0.17377637621533221</v>
+        <v>0.17037839817191719</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>0.1015583019881784</v>
+        <v>6.3165277362720512E-2</v>
       </c>
       <c r="B507">
-        <v>0.17377637621533221</v>
+        <v>0.17037839817191719</v>
       </c>
       <c r="C507">
-        <v>0.19302509909902058</v>
+        <v>0.18489627076637105</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>0.14132186996238583</v>
+        <v>7.5652855573842687E-2</v>
       </c>
       <c r="B508">
-        <v>0.19302509909902058</v>
+        <v>0.18489627076637105</v>
       </c>
       <c r="C508">
-        <v>0.20916562861206006</v>
+        <v>0.17923222174193223</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>0.13935160308078096</v>
+        <v>8.5050212591290572E-2</v>
       </c>
       <c r="B509">
-        <v>0.20916562861206006</v>
+        <v>0.17923222174193223</v>
       </c>
       <c r="C509">
-        <v>0.24730010888284756</v>
+        <v>0.16051813401453183</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>0.27637470893784705</v>
+        <v>6.4252989013113687E-2</v>
       </c>
       <c r="B510">
-        <v>0.24730010888284756</v>
+        <v>0.16051813401453183</v>
       </c>
       <c r="C510">
-        <v>0.27792159704929398</v>
+        <v>0.1824895741815051</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>0.35285688697832707</v>
+        <v>7.5228934525757199E-2</v>
       </c>
       <c r="B511">
-        <v>0.27792159704929398</v>
+        <v>0.1824895741815051</v>
       </c>
       <c r="C511">
-        <v>0.29239365659002758</v>
+        <v>0.18081027986276477</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>0.45656457101916531</v>
+        <v>8.5713623828074931E-2</v>
       </c>
       <c r="B512">
-        <v>0.29239365659002758</v>
+        <v>0.18081027986276477</v>
       </c>
       <c r="C512">
-        <v>0.31882767264585632</v>
+        <v>0.20782004581563804</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>0.49041733834855811</v>
+        <v>0.14269261302463362</v>
       </c>
       <c r="B513">
-        <v>0.31882767264585632</v>
+        <v>0.20782004581563804</v>
       </c>
       <c r="C513">
-        <v>0.34027195505407892</v>
+        <v>0.23351060152528427</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>0.56063048540211358</v>
+        <v>0.15105145665316244</v>
       </c>
       <c r="B514">
-        <v>0.34027195505407892</v>
+        <v>0.23351060152528427</v>
       </c>
       <c r="C514">
-        <v>0.31339943103991574</v>
+        <v>0.27340125790122904</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>2.9016657710908115E-2</v>
+        <v>0.30854230846473824</v>
       </c>
       <c r="B515">
-        <v>0.31339943103991574</v>
+        <v>0.27340125790122904</v>
       </c>
       <c r="C515">
-        <v>0.31243503288687707</v>
+        <v>0.30347461662789238</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>7.0929607737775388E-2</v>
+        <v>0.43573659953375715</v>
       </c>
       <c r="B516">
-        <v>0.31243503288687707</v>
+        <v>0.30347461662789238</v>
       </c>
       <c r="C516">
-        <v>0.3075217160525705</v>
+        <v>0.31853628002309653</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>0.11391724879097259</v>
+        <v>0.31603005507427812</v>
       </c>
       <c r="B517">
-        <v>0.3075217160525705</v>
+        <v>0.31853628002309653</v>
       </c>
       <c r="C517">
-        <v>0.31466967161560888</v>
+        <v>0.27822695695988425</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>0.15690488984416981</v>
+        <v>0.2109386002158411</v>
       </c>
       <c r="B518">
-        <v>0.31466967161560888</v>
+        <v>0.27822695695988425</v>
       </c>
       <c r="C518">
-        <v>0.31610239379324828</v>
+        <v>0.26715904120079642</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>0.199892530897367</v>
+        <v>0.27435073555046519</v>
       </c>
       <c r="B519">
-        <v>0.31610239379324828</v>
+        <v>0.26715904120079642</v>
       </c>
       <c r="C519">
-        <v>0.30142049330296022</v>
+        <v>0.26564703946610246</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>0.24180548092423429</v>
+        <v>0.23494812133517415</v>
       </c>
       <c r="B520">
-        <v>0.30142049330296022</v>
+        <v>0.26564703946610246</v>
       </c>
       <c r="C520">
-        <v>0.30757764075606853</v>
+        <v>0.25143089439587207</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>0.28479312197743151</v>
+        <v>0.16602070165722968</v>
       </c>
       <c r="B521">
-        <v>0.30757764075606853</v>
+        <v>0.25143089439587207</v>
       </c>
       <c r="C521">
-        <v>0.30929986226941836</v>
+        <v>0.21692081214287171</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>0.3277807630306287</v>
+        <v>9.7558488736548987E-2</v>
       </c>
       <c r="B522">
-        <v>0.30929986226941836</v>
+        <v>0.21692081214287171</v>
       </c>
       <c r="C522">
-        <v>0.28208274062116889</v>
+        <v>0.16342071163778651</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>0.32151173204370409</v>
+        <v>6.4213343551651814E-2</v>
       </c>
       <c r="B523">
-        <v>0.28208274062116889</v>
+        <v>0.16342071163778651</v>
       </c>
       <c r="C523">
-        <v>0.28155358958893062</v>
+        <v>0.13218848932247573</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>0.23553644993730968</v>
+        <v>8.074983856846589E-2</v>
       </c>
       <c r="B524">
-        <v>0.28155358958893062</v>
+        <v>0.13218848932247573</v>
       </c>
       <c r="C524">
-        <v>0.26345431088359306</v>
+        <v>0.16771782308367572</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>0.34085617051764283</v>
+        <v>6.8138465196775772E-2</v>
       </c>
       <c r="B525">
-        <v>0.26345431088359306</v>
+        <v>0.16771782308367572</v>
       </c>
       <c r="C525">
-        <v>0.25781209639012848</v>
+        <v>0.16129847714540085</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>0.24699982088482894</v>
+        <v>8.937951132458935E-2</v>
       </c>
       <c r="B526">
-        <v>0.25781209639012848</v>
+        <v>0.16129847714540085</v>
       </c>
       <c r="C526">
-        <v>0.20973079192454358</v>
+        <v>0.16878049391687863</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>0.17732401934443848</v>
+        <v>9.2528466362036543E-2</v>
       </c>
       <c r="B527">
-        <v>0.20973079192454358</v>
+        <v>0.16878049391687863</v>
       </c>
       <c r="C527">
-        <v>0.1844417446817628</v>
+        <v>0.13811228459543387</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>0.11302167293569765</v>
+        <v>1.9533171343578674E-2</v>
       </c>
       <c r="B528">
-        <v>0.1844417446817628</v>
+        <v>0.13811228459543387</v>
       </c>
       <c r="C528">
-        <v>0.15829795734137814</v>
+        <v>0.13301187180090854</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>3.9584452803152426E-2</v>
+        <v>4.8304423230361E-2</v>
       </c>
       <c r="B529">
-        <v>0.15829795734137814</v>
+        <v>0.13301187180090854</v>
       </c>
       <c r="C529">
-        <v>0.11053180481678251</v>
+        <v>0.11523585333377437</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>6.4481461579795809E-3</v>
+        <v>2.7680278288888499E-2</v>
       </c>
       <c r="B530">
-        <v>0.11053180481678251</v>
+        <v>0.11523585333377437</v>
       </c>
       <c r="C530">
-        <v>9.1398880480817471E-2</v>
+        <v>9.4494792823256235E-2</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>0</v>
+        <v>3.0402527391448894E-4</v>
       </c>
       <c r="B531">
-        <v>9.1398880480817471E-2</v>
+        <v>9.4494792823256235E-2</v>
       </c>
       <c r="C531">
-        <v>6.9586110446002186E-2</v>
+        <v>5.0409789647180556E-2</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>1.7911517105498836E-3</v>
+        <v>0</v>
       </c>
       <c r="B532">
-        <v>6.9586110446002186E-2</v>
+        <v>5.0409789647180556E-2</v>
       </c>
       <c r="C532">
-        <v>8.0557924276210696E-2</v>
+        <v>4.5187897783939342E-2</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>1.7195056421278884E-2</v>
+        <v>0</v>
       </c>
       <c r="B533">
-        <v>8.0557924276210696E-2</v>
+        <v>4.5187897783939342E-2</v>
       </c>
       <c r="C533">
-        <v>0.10772565508249184</v>
+        <v>6.5560073967213944E-2</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>3.6897725237327601E-2</v>
+        <v>0</v>
       </c>
       <c r="B534">
-        <v>0.10772565508249184</v>
+        <v>6.5560073967213944E-2</v>
       </c>
       <c r="C534">
-        <v>0.12532605651552015</v>
+        <v>5.1160080666784943E-2</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>4.8181981013791869E-2</v>
+        <v>0</v>
       </c>
       <c r="B535">
-        <v>0.12532605651552015</v>
+        <v>5.1160080666784943E-2</v>
       </c>
       <c r="C535">
-        <v>0.14526046887074842</v>
+        <v>3.7286503796001728E-2</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>6.2690309869245925E-2</v>
+        <v>0</v>
       </c>
       <c r="B536">
-        <v>0.14526046887074842</v>
+        <v>3.7286503796001728E-2</v>
       </c>
       <c r="C536">
-        <v>0.17783480821374067</v>
+        <v>3.0466819131212991E-2</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>0.12233566183055705</v>
+        <v>0</v>
       </c>
       <c r="B537">
-        <v>0.17783480821374067</v>
+        <v>3.0466819131212991E-2</v>
       </c>
       <c r="C537">
-        <v>0.2037429933594716</v>
+        <v>2.9431538949290268E-2</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>0.12233566183055705</v>
+        <v>0</v>
       </c>
       <c r="B538">
-        <v>0.2037429933594716</v>
+        <v>2.9431538949290268E-2</v>
       </c>
       <c r="C538">
-        <v>0.21092019866452841</v>
+        <v>2.8026944323550018E-2</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>0.13397814794913129</v>
+        <v>0</v>
       </c>
       <c r="B539">
-        <v>0.21092019866452841</v>
+        <v>2.8026944323550018E-2</v>
       </c>
       <c r="C539">
-        <v>0.20144125835421392</v>
+        <v>3.6343009134135011E-2</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>8.0960057316854739E-2</v>
+        <v>0</v>
       </c>
       <c r="B540">
-        <v>0.20144125835421392</v>
+        <v>3.6343009134135011E-2</v>
       </c>
       <c r="C540">
-        <v>0.19315492565277395</v>
+        <v>5.4827976348495372E-2</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>5.4809242342826435E-2</v>
+        <v>1.3050907745179792E-2</v>
       </c>
       <c r="B541">
-        <v>0.19315492565277395</v>
+        <v>5.4827976348495372E-2</v>
       </c>
       <c r="C541">
-        <v>0.19685387607722496</v>
+        <v>9.2365055593754464E-2</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>9.6543077198638722E-2</v>
+        <v>1.2598641057987667E-2</v>
       </c>
       <c r="B542">
-        <v>0.19685387607722496</v>
+        <v>9.2365055593754464E-2</v>
       </c>
       <c r="C542">
-        <v>0.17578236174563133</v>
+        <v>0.12626686643688859</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>5.033136306645173E-2</v>
+        <v>5.2915513184319245E-2</v>
       </c>
       <c r="B543">
-        <v>0.17578236174563133</v>
+        <v>0.12626686643688859</v>
       </c>
       <c r="C543">
-        <v>0.16244748266493725</v>
+        <v>0.16331342356556905</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>8.4184130395844534E-2</v>
+        <v>5.8190020229053549E-2</v>
       </c>
       <c r="B544">
-        <v>0.16244748266493725</v>
+        <v>0.16331342356556905</v>
       </c>
       <c r="C544">
-        <v>0.15378545293982829</v>
+        <v>0.12470363676578095</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>7.1108722908830371E-2</v>
+        <v>9.5727463671119364E-3</v>
       </c>
       <c r="B545">
-        <v>0.15378545293982829</v>
+        <v>0.12470363676578095</v>
       </c>
       <c r="C545">
-        <v>0.15877995958324667</v>
+        <v>9.4726274014101122E-2</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>6.5197922264015759E-2</v>
+        <v>0</v>
       </c>
       <c r="B546">
-        <v>0.15877995958324667</v>
+        <v>9.4726274014101122E-2</v>
       </c>
       <c r="C546">
-        <v>0.14622582419399402</v>
+        <v>6.342507787417867E-2</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>7.558660218520509E-2</v>
+        <v>0</v>
       </c>
       <c r="B547">
-        <v>0.14622582419399402</v>
+        <v>6.342507787417867E-2</v>
       </c>
       <c r="C547">
-        <v>0.14245996387160162</v>
+        <v>5.8190174617420411E-2</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>4.5316138276912055E-2</v>
+        <v>0</v>
       </c>
       <c r="B548">
-        <v>0.14245996387160162</v>
+        <v>5.8190174617420411E-2</v>
       </c>
       <c r="C548">
-        <v>0.13148293186596005</v>
+        <v>5.5995243588295412E-2</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>1.4687444026509046E-2</v>
+        <v>0</v>
       </c>
       <c r="B549">
-        <v>0.13148293186596005</v>
+        <v>5.5995243588295412E-2</v>
       </c>
       <c r="C549">
-        <v>0.10946928633491604</v>
+        <v>5.8683303225045808E-2</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>1.8807092960773777E-2</v>
+        <v>0</v>
       </c>
       <c r="B550">
-        <v>0.10946928633491604</v>
+        <v>5.8683303225045808E-2</v>
       </c>
       <c r="C550">
-        <v>9.0530024237840859E-2</v>
+        <v>0.11106003364582609</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>2.3284972237148488E-3</v>
+        <v>3.1430810053022666E-2</v>
       </c>
       <c r="B551">
-        <v>9.0530024237840859E-2</v>
+        <v>0.11106003364582609</v>
       </c>
       <c r="C551">
-        <v>7.0969612012658972E-2</v>
+        <v>0.30441732946940081</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>1.7911517105498837E-2</v>
+        <v>0.79608723687409877</v>
       </c>
       <c r="B552">
-        <v>7.0969612012658972E-2</v>
+        <v>0.30441732946940081</v>
       </c>
       <c r="C552">
-        <v>5.2200026620191638E-2</v>
+        <v>0.43385511926007403</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>3.582303421099767E-4</v>
+        <v>0.66349511887214319</v>
       </c>
       <c r="B553">
-        <v>5.2200026620191638E-2</v>
+        <v>0.43385511926007403</v>
       </c>
       <c r="C553">
-        <v>3.419859353873262E-2</v>
+        <v>0.34980073021298408</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>1.7911517105498835E-4</v>
+        <v>0.67078597585212807</v>
       </c>
       <c r="B554">
-        <v>3.419859353873262E-2</v>
+        <v>0.34980073021298408</v>
       </c>
       <c r="C554">
-        <v>2.1435946867389182E-2</v>
+        <v>0.21748560064892131</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>5.3734551316496511E-4</v>
+        <v>0.15056153025917823</v>
       </c>
       <c r="B555">
-        <v>2.1435946867389182E-2</v>
+        <v>0.21748560064892131</v>
       </c>
       <c r="C555">
-        <v>2.2474159210070399E-2</v>
+        <v>0.15069293957602647</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>8.9557585527494181E-4</v>
+        <v>3.3753668019002508E-2</v>
       </c>
       <c r="B556">
-        <v>2.2474159210070399E-2</v>
+        <v>0.15069293957602647</v>
       </c>
       <c r="C556">
-        <v>4.7355927370294669E-2</v>
+        <v>0.18005313772613293</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>9.3139888948593954E-3</v>
+        <v>0.18140611374386226</v>
       </c>
       <c r="B557">
-        <v>4.7355927370294669E-2</v>
+        <v>0.18005313772613293</v>
       </c>
       <c r="C557">
-        <v>7.9158001079333046E-2</v>
+        <v>0.25930942319713812</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>2.5434354289808347E-2</v>
+        <v>0.16337804341130344</v>
       </c>
       <c r="B558">
-        <v>7.9158001079333046E-2</v>
+        <v>0.25930942319713812</v>
       </c>
       <c r="C558">
-        <v>9.8838135238816544E-2</v>
+        <v>0.31773069681334953</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>1.7015941250223893E-2</v>
+        <v>0.85029281642658339</v>
       </c>
       <c r="B559">
-        <v>9.8838135238816544E-2</v>
+        <v>0.31773069681334953</v>
       </c>
       <c r="C559">
-        <v>0.10580825347654517</v>
+        <v>0.50904043846492808</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>3.4927458355722731E-2</v>
+        <v>0.88474536196624698</v>
       </c>
       <c r="B560">
-        <v>0.10580825347654517</v>
+        <v>0.50904043846492808</v>
       </c>
       <c r="C560">
-        <v>9.999902031705242E-2</v>
+        <v>0.51580559183902819</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>3.8867992118932472E-2</v>
+        <v>0.87546272729975172</v>
       </c>
       <c r="B561">
-        <v>9.999902031705242E-2</v>
+        <v>0.51580559183902819</v>
       </c>
       <c r="C561">
-        <v>9.6597377887757699E-2</v>
+        <v>0.4785577018149425</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>8.5975282106394418E-3</v>
+        <v>0.94122233952845269</v>
       </c>
       <c r="B562">
-        <v>9.6597377887757699E-2</v>
+        <v>0.4785577018149425</v>
       </c>
       <c r="C562">
-        <v>0.10098561763257694</v>
+        <v>0.46874952694077227</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>1.4687444026509046E-2</v>
+        <v>0.80351714729121904</v>
       </c>
       <c r="B563">
-        <v>0.10098561763257694</v>
+        <v>0.46874952694077227</v>
       </c>
       <c r="C563">
-        <v>0.10041619848583334</v>
+        <v>0.51445091390928055</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>1.0746910263299301E-2</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B564">
-        <v>0.10041619848583334</v>
+        <v>0.51445091390928055</v>
       </c>
       <c r="C564">
-        <v>0.1093079266736309</v>
+        <v>0.54031948374548233</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>2.61508149740283E-2</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B565">
-        <v>0.1093079266736309</v>
+        <v>0.54031948374548233</v>
       </c>
       <c r="C565">
-        <v>0.11721882616752655</v>
+        <v>0.57826448294647037</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>2.400143292136844E-2</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B566">
-        <v>0.11721882616752655</v>
+        <v>0.57826448294647037</v>
       </c>
       <c r="C566">
-        <v>0.12826773223865265</v>
+        <v>0.60082983483813723</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>3.9405337632097436E-2</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B567">
-        <v>0.12826773223865265</v>
+        <v>0.60082983483813723</v>
       </c>
       <c r="C567">
-        <v>0.1467298854218306</v>
+        <v>0.61173552204411241</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>4.9077556869066813E-2</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B568">
-        <v>0.1467298854218306</v>
+        <v>0.61173552204411241</v>
       </c>
       <c r="C568">
-        <v>0.14303356210637502</v>
+        <v>0.60981492738496368</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>6.6809958803510663E-2</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B569">
-        <v>0.14303356210637502</v>
+        <v>0.60981492738496368</v>
       </c>
       <c r="C569">
-        <v>0.12782342662470664</v>
+        <v>0.60206342981502603</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>4.3524986566362174E-2</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B570">
-        <v>0.12782342662470664</v>
+        <v>0.60206342981502603</v>
       </c>
       <c r="C570">
-        <v>0.10419633081448219</v>
+        <v>0.61558633508224336</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>8.5975282106394418E-3</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B571">
-        <v>0.10419633081448219</v>
+        <v>0.61558633508224336</v>
       </c>
       <c r="C571">
-        <v>8.9992943384179958E-2</v>
+        <v>0.57697991717014385</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>1.6120365394948952E-3</v>
+        <v>0.99547104367700534</v>
       </c>
       <c r="B572">
-        <v>8.9992943384179958E-2</v>
+        <v>0.57697991717014385</v>
       </c>
       <c r="C572">
-        <v>7.95064303409731E-2</v>
+        <v>0.50872675797923816</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>5.9108006448146157E-3</v>
+        <v>0.85483480703073322</v>
       </c>
       <c r="B573">
-        <v>7.95064303409731E-2</v>
+        <v>0.50872675797923816</v>
       </c>
       <c r="C573">
-        <v>8.3303872079655367E-2</v>
+        <v>0.47925753415487576</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>3.582303421099767E-4</v>
+        <v>0.89538556931521629</v>
       </c>
       <c r="B574">
-        <v>8.3303872079655367E-2</v>
+        <v>0.47925753415487576</v>
       </c>
       <c r="C574">
-        <v>8.4499457237529024E-2</v>
+        <v>0.48106709901451916</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>2.1493820526598602E-2</v>
+        <v>0.90937151484550427</v>
       </c>
       <c r="B575">
-        <v>8.4499457237529024E-2</v>
+        <v>0.48106709901451916</v>
       </c>
       <c r="C575">
-        <v>6.772700461094143E-2</v>
+        <v>0.51144540461619237</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>2.3105857066093499E-2</v>
+        <v>0.85343838751360024</v>
       </c>
       <c r="B576">
-        <v>6.772700461094143E-2</v>
+        <v>0.51144540461619237</v>
       </c>
       <c r="C576">
-        <v>5.0063103671156933E-2</v>
+        <v>0.49627197830264486</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>1.7911517105498835E-4</v>
+        <v>0.86467458503572892</v>
       </c>
       <c r="B577">
-        <v>5.0063103671156933E-2</v>
+        <v>0.49627197830264486</v>
       </c>
       <c r="C577">
-        <v>3.5934382926264455E-2</v>
+        <v>0.40644679157356239</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>7.1646068421995341E-4</v>
+        <v>0.84915764449774667</v>
       </c>
       <c r="B578">
-        <v>3.5934382926264455E-2</v>
+        <v>0.40644679157356239</v>
       </c>
       <c r="C578">
-        <v>4.0571731771650021E-2</v>
+        <v>0.42545754778611894</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>1.0746910263299302E-3</v>
+        <v>0.34390198768088276</v>
       </c>
       <c r="B579">
-        <v>4.0571731771650021E-2</v>
+        <v>0.42545754778611894</v>
       </c>
       <c r="C579">
-        <v>5.7909830296460817E-2</v>
+        <v>0.28999090088606133</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>7.7019523553644997E-3</v>
+        <v>0.34017405250015487</v>
       </c>
       <c r="B580">
-        <v>5.7909830296460817E-2</v>
+        <v>0.28999090088606133</v>
       </c>
       <c r="C580">
-        <v>5.6621757455858734E-2</v>
+        <v>0.26955529999246258</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>1.7911517105498836E-3</v>
+        <v>0.19612732903907287</v>
       </c>
       <c r="B581">
-        <v>5.6621757455858734E-2</v>
+        <v>0.26955529999246258</v>
       </c>
       <c r="C581">
-        <v>5.5107088667383425E-2</v>
+        <v>0.23107301875807945</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>1.0746910263299301E-2</v>
+        <v>0.14192549893842066</v>
       </c>
       <c r="B582">
-        <v>5.5107088667383425E-2</v>
+        <v>0.23107301875807945</v>
       </c>
       <c r="C582">
-        <v>5.3835493352777826E-2</v>
+        <v>0.30068596313075435</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>7.7019523553644997E-3</v>
+        <v>0.40575871669380009</v>
       </c>
       <c r="B583">
-        <v>5.3835493352777826E-2</v>
+        <v>0.30068596313075435</v>
       </c>
       <c r="C583">
-        <v>5.375212421939269E-2</v>
+        <v>0.2857947788789042</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>0</v>
+        <v>0.36310439943912043</v>
       </c>
       <c r="B584">
-        <v>5.375212421939269E-2</v>
+        <v>0.2857947788789042</v>
       </c>
       <c r="C584">
-        <v>5.9584661864583353E-2</v>
+        <v>0.34170077526671983</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>1.4329213684399068E-3</v>
+        <v>0.64021004748855725</v>
       </c>
       <c r="B585">
-        <v>5.9584661864583353E-2</v>
+        <v>0.34170077526671983</v>
       </c>
       <c r="C585">
-        <v>6.1477217138035133E-2</v>
+        <v>0.37357562857065657</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>3.582303421099767E-4</v>
+        <v>0.52832246682872963</v>
       </c>
       <c r="B586">
-        <v>6.1477217138035133E-2</v>
+        <v>0.37357562857065657</v>
       </c>
       <c r="C586">
-        <v>6.6005799872134424E-2</v>
+        <v>0.39754492684140563</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>5.3734551316496511E-4</v>
+        <v>0.64807678073959385</v>
       </c>
       <c r="B587">
-        <v>6.6005799872134424E-2</v>
+        <v>0.39754492684140563</v>
       </c>
       <c r="C587">
-        <v>7.0794123537359241E-2</v>
+        <v>0.43535152762713536</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>3.582303421099767E-4</v>
+        <v>0.65813427491020193</v>
       </c>
       <c r="B588">
-        <v>7.0794123537359241E-2</v>
+        <v>0.43535152762713536</v>
       </c>
       <c r="C588">
-        <v>7.9956689887200103E-2</v>
+        <v>0.46323901187596522</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>2.3105857066093499E-2</v>
+        <v>0.80786115325991315</v>
       </c>
       <c r="B589">
-        <v>7.9956689887200103E-2</v>
+        <v>0.46323901187596522</v>
       </c>
       <c r="C589">
-        <v>8.1905094853504334E-2</v>
+        <v>0.4662258864970103</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>1.1821601289629231E-2</v>
+        <v>0.68324835249985427</v>
       </c>
       <c r="B590">
-        <v>8.1905094853504334E-2</v>
+        <v>0.4662258864970103</v>
       </c>
       <c r="C590">
-        <v>7.4086142895379375E-2</v>
+        <v>0.3961592476871435</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>6.9854916711445461E-3</v>
+        <v>0.452589291670972</v>
       </c>
       <c r="B591">
-        <v>7.4086142895379375E-2</v>
+        <v>0.3961592476871435</v>
       </c>
       <c r="C591">
-        <v>6.5013548294494294E-2</v>
+        <v>0.28026143603445636</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>0</v>
+        <v>0.12344687898613313</v>
       </c>
       <c r="B592">
-        <v>6.5013548294494294E-2</v>
+        <v>0.28026143603445636</v>
       </c>
       <c r="C592">
-        <v>5.6079904099276906E-2</v>
+        <v>0.1784903655598748</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>7.1646068421995341E-4</v>
+        <v>0.13069238194601193</v>
       </c>
       <c r="B593">
-        <v>5.6079904099276906E-2</v>
+        <v>0.1784903655598748</v>
       </c>
       <c r="C593">
-        <v>4.6776081545694362E-2</v>
+        <v>0.26262900839350184</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>2.5076123947698368E-3</v>
+        <v>0.15557795748311465</v>
       </c>
       <c r="B594">
-        <v>4.6776081545694362E-2</v>
+        <v>0.26262900839350184</v>
       </c>
       <c r="C594">
-        <v>3.8300911178496821E-2</v>
+        <v>0.26343661956474984</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>1.7911517105498835E-4</v>
+        <v>9.7234413625482824E-2</v>
       </c>
       <c r="B595">
-        <v>3.8300911178496821E-2</v>
+        <v>0.26343661956474984</v>
       </c>
       <c r="C595">
-        <v>2.5298758027283159E-2</v>
+        <v>0.21839716650771335</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>1.7911517105498835E-4</v>
+        <v>0.10632784645534953</v>
       </c>
       <c r="B596">
-        <v>2.5298758027283159E-2</v>
+        <v>0.21839716650771335</v>
       </c>
       <c r="C596">
-        <v>1.797390882518483E-2</v>
+        <v>0.13689998651779434</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>5.3734551316496511E-4</v>
+        <v>1.6567936563175345E-2</v>
       </c>
       <c r="B597">
-        <v>1.797390882518483E-2</v>
+        <v>0.13689998651779434</v>
       </c>
       <c r="C597">
-        <v>1.5588882334051096E-2</v>
+        <v>0.12667323374558925</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>5.3734551316496511E-4</v>
+        <v>9.7836274281058663E-2</v>
       </c>
       <c r="B598">
-        <v>1.5588882334051096E-2</v>
+        <v>0.12667323374558925</v>
       </c>
       <c r="C598">
-        <v>1.6642741319817467E-2</v>
+        <v>0.2344503613227289</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>7.1646068421995341E-4</v>
+        <v>0.18650184884239207</v>
       </c>
       <c r="B599">
-        <v>1.6642741319817467E-2</v>
+        <v>0.2344503613227289</v>
       </c>
       <c r="C599">
-        <v>1.6497986092456327E-2</v>
+        <v>0.20851996107109638</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>8.9557585527494181E-4</v>
+        <v>9.3841905219142513E-2</v>
       </c>
       <c r="B600">
-        <v>1.6497986092456327E-2</v>
+        <v>0.20851996107109638</v>
       </c>
       <c r="C600">
-        <v>1.7717268175838692E-2</v>
+        <v>0.22707985190471747</v>
       </c>
     </row>
   </sheetData>
